--- a/www/docs/SanMarino_AllIndicatorsAvailable_TerritorialRef_1992_2012_CCode_674.xlsx
+++ b/www/docs/SanMarino_AllIndicatorsAvailable_TerritorialRef_1992_2012_CCode_674.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="677">
   <si>
     <t>Country Code</t>
   </si>
@@ -1751,6 +1751,9 @@
     <t>Urbanization Ratio</t>
   </si>
   <si>
+    <t>Working week in manufacturing</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -1838,6 +1841,9 @@
     <t>Rijpma, Auke (2017). Composite measure of wellbeing. http://hdl.handle.net/10622/QIPFQF, accessed via the Clio Infra website.</t>
   </si>
   <si>
+    <t>Gilmore, Oisín (2021). Version V1. DOI: 10622/SZ4A1H. {The working week in manufacturing since 1820}. https://hdl.handle.net/10622/SZ4A1H, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.xml</t>
   </si>
   <si>
@@ -1902,6 +1908,9 @@
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.xml</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.ris</t>
@@ -1970,6 +1979,9 @@
     <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.ris</t>
   </si>
   <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.ris</t>
+  </si>
+  <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.bib</t>
   </si>
   <si>
@@ -2034,6 +2046,9 @@
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.bib</t>
   </si>
 </sst>
 </file>
@@ -19038,6 +19053,632 @@
       <c r="UG23"/>
       <c r="UH23"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24"/>
+      <c r="CS24"/>
+      <c r="CT24"/>
+      <c r="CU24"/>
+      <c r="CV24"/>
+      <c r="CW24"/>
+      <c r="CX24"/>
+      <c r="CY24"/>
+      <c r="CZ24"/>
+      <c r="DA24"/>
+      <c r="DB24"/>
+      <c r="DC24"/>
+      <c r="DD24"/>
+      <c r="DE24"/>
+      <c r="DF24"/>
+      <c r="DG24"/>
+      <c r="DH24"/>
+      <c r="DI24"/>
+      <c r="DJ24"/>
+      <c r="DK24"/>
+      <c r="DL24"/>
+      <c r="DM24"/>
+      <c r="DN24"/>
+      <c r="DO24"/>
+      <c r="DP24"/>
+      <c r="DQ24"/>
+      <c r="DR24"/>
+      <c r="DS24"/>
+      <c r="DT24"/>
+      <c r="DU24"/>
+      <c r="DV24"/>
+      <c r="DW24"/>
+      <c r="DX24"/>
+      <c r="DY24"/>
+      <c r="DZ24"/>
+      <c r="EA24"/>
+      <c r="EB24"/>
+      <c r="EC24"/>
+      <c r="ED24"/>
+      <c r="EE24"/>
+      <c r="EF24"/>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24"/>
+      <c r="EL24"/>
+      <c r="EM24"/>
+      <c r="EN24"/>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24"/>
+      <c r="ER24"/>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24"/>
+      <c r="EX24"/>
+      <c r="EY24"/>
+      <c r="EZ24"/>
+      <c r="FA24"/>
+      <c r="FB24"/>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24"/>
+      <c r="FJ24"/>
+      <c r="FK24"/>
+      <c r="FL24"/>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24"/>
+      <c r="FR24"/>
+      <c r="FS24"/>
+      <c r="FT24"/>
+      <c r="FU24"/>
+      <c r="FV24"/>
+      <c r="FW24"/>
+      <c r="FX24"/>
+      <c r="FY24"/>
+      <c r="FZ24"/>
+      <c r="GA24"/>
+      <c r="GB24"/>
+      <c r="GC24"/>
+      <c r="GD24"/>
+      <c r="GE24"/>
+      <c r="GF24"/>
+      <c r="GG24"/>
+      <c r="GH24"/>
+      <c r="GI24"/>
+      <c r="GJ24"/>
+      <c r="GK24"/>
+      <c r="GL24"/>
+      <c r="GM24"/>
+      <c r="GN24"/>
+      <c r="GO24"/>
+      <c r="GP24"/>
+      <c r="GQ24"/>
+      <c r="GR24"/>
+      <c r="GS24"/>
+      <c r="GT24"/>
+      <c r="GU24"/>
+      <c r="GV24"/>
+      <c r="GW24"/>
+      <c r="GX24"/>
+      <c r="GY24"/>
+      <c r="GZ24"/>
+      <c r="HA24"/>
+      <c r="HB24"/>
+      <c r="HC24"/>
+      <c r="HD24"/>
+      <c r="HE24"/>
+      <c r="HF24"/>
+      <c r="HG24"/>
+      <c r="HH24"/>
+      <c r="HI24"/>
+      <c r="HJ24"/>
+      <c r="HK24"/>
+      <c r="HL24"/>
+      <c r="HM24"/>
+      <c r="HN24"/>
+      <c r="HO24"/>
+      <c r="HP24"/>
+      <c r="HQ24"/>
+      <c r="HR24"/>
+      <c r="HS24"/>
+      <c r="HT24"/>
+      <c r="HU24"/>
+      <c r="HV24"/>
+      <c r="HW24"/>
+      <c r="HX24"/>
+      <c r="HY24"/>
+      <c r="HZ24"/>
+      <c r="IA24"/>
+      <c r="IB24"/>
+      <c r="IC24"/>
+      <c r="ID24"/>
+      <c r="IE24"/>
+      <c r="IF24"/>
+      <c r="IG24"/>
+      <c r="IH24"/>
+      <c r="II24"/>
+      <c r="IJ24"/>
+      <c r="IK24"/>
+      <c r="IL24"/>
+      <c r="IM24"/>
+      <c r="IN24"/>
+      <c r="IO24"/>
+      <c r="IP24"/>
+      <c r="IQ24"/>
+      <c r="IR24"/>
+      <c r="IS24"/>
+      <c r="IT24"/>
+      <c r="IU24"/>
+      <c r="IV24"/>
+      <c r="IW24"/>
+      <c r="IX24"/>
+      <c r="IY24"/>
+      <c r="IZ24"/>
+      <c r="JA24"/>
+      <c r="JB24"/>
+      <c r="JC24"/>
+      <c r="JD24"/>
+      <c r="JE24"/>
+      <c r="JF24"/>
+      <c r="JG24"/>
+      <c r="JH24"/>
+      <c r="JI24"/>
+      <c r="JJ24"/>
+      <c r="JK24"/>
+      <c r="JL24"/>
+      <c r="JM24"/>
+      <c r="JN24"/>
+      <c r="JO24"/>
+      <c r="JP24"/>
+      <c r="JQ24"/>
+      <c r="JR24"/>
+      <c r="JS24"/>
+      <c r="JT24"/>
+      <c r="JU24"/>
+      <c r="JV24"/>
+      <c r="JW24"/>
+      <c r="JX24"/>
+      <c r="JY24"/>
+      <c r="JZ24"/>
+      <c r="KA24"/>
+      <c r="KB24"/>
+      <c r="KC24"/>
+      <c r="KD24"/>
+      <c r="KE24"/>
+      <c r="KF24"/>
+      <c r="KG24"/>
+      <c r="KH24"/>
+      <c r="KI24"/>
+      <c r="KJ24"/>
+      <c r="KK24"/>
+      <c r="KL24"/>
+      <c r="KM24"/>
+      <c r="KN24"/>
+      <c r="KO24"/>
+      <c r="KP24"/>
+      <c r="KQ24"/>
+      <c r="KR24"/>
+      <c r="KS24"/>
+      <c r="KT24"/>
+      <c r="KU24"/>
+      <c r="KV24"/>
+      <c r="KW24"/>
+      <c r="KX24"/>
+      <c r="KY24"/>
+      <c r="KZ24"/>
+      <c r="LA24"/>
+      <c r="LB24"/>
+      <c r="LC24"/>
+      <c r="LD24"/>
+      <c r="LE24"/>
+      <c r="LF24"/>
+      <c r="LG24"/>
+      <c r="LH24"/>
+      <c r="LI24"/>
+      <c r="LJ24"/>
+      <c r="LK24"/>
+      <c r="LL24"/>
+      <c r="LM24"/>
+      <c r="LN24"/>
+      <c r="LO24"/>
+      <c r="LP24"/>
+      <c r="LQ24"/>
+      <c r="LR24"/>
+      <c r="LS24"/>
+      <c r="LT24"/>
+      <c r="LU24"/>
+      <c r="LV24"/>
+      <c r="LW24"/>
+      <c r="LX24"/>
+      <c r="LY24"/>
+      <c r="LZ24"/>
+      <c r="MA24"/>
+      <c r="MB24"/>
+      <c r="MC24"/>
+      <c r="MD24"/>
+      <c r="ME24"/>
+      <c r="MF24"/>
+      <c r="MG24"/>
+      <c r="MH24"/>
+      <c r="MI24"/>
+      <c r="MJ24"/>
+      <c r="MK24"/>
+      <c r="ML24"/>
+      <c r="MM24"/>
+      <c r="MN24"/>
+      <c r="MO24"/>
+      <c r="MP24"/>
+      <c r="MQ24"/>
+      <c r="MR24"/>
+      <c r="MS24"/>
+      <c r="MT24"/>
+      <c r="MU24"/>
+      <c r="MV24"/>
+      <c r="MW24"/>
+      <c r="MX24"/>
+      <c r="MY24"/>
+      <c r="MZ24"/>
+      <c r="NA24"/>
+      <c r="NB24"/>
+      <c r="NC24"/>
+      <c r="ND24"/>
+      <c r="NE24"/>
+      <c r="NF24"/>
+      <c r="NG24"/>
+      <c r="NH24"/>
+      <c r="NI24"/>
+      <c r="NJ24"/>
+      <c r="NK24"/>
+      <c r="NL24"/>
+      <c r="NM24"/>
+      <c r="NN24"/>
+      <c r="NO24"/>
+      <c r="NP24"/>
+      <c r="NQ24"/>
+      <c r="NR24"/>
+      <c r="NS24"/>
+      <c r="NT24"/>
+      <c r="NU24"/>
+      <c r="NV24"/>
+      <c r="NW24"/>
+      <c r="NX24"/>
+      <c r="NY24"/>
+      <c r="NZ24"/>
+      <c r="OA24"/>
+      <c r="OB24"/>
+      <c r="OC24"/>
+      <c r="OD24"/>
+      <c r="OE24"/>
+      <c r="OF24"/>
+      <c r="OG24"/>
+      <c r="OH24"/>
+      <c r="OI24"/>
+      <c r="OJ24"/>
+      <c r="OK24"/>
+      <c r="OL24"/>
+      <c r="OM24"/>
+      <c r="ON24"/>
+      <c r="OO24"/>
+      <c r="OP24"/>
+      <c r="OQ24"/>
+      <c r="OR24"/>
+      <c r="OS24"/>
+      <c r="OT24"/>
+      <c r="OU24"/>
+      <c r="OV24"/>
+      <c r="OW24"/>
+      <c r="OX24"/>
+      <c r="OY24"/>
+      <c r="OZ24"/>
+      <c r="PA24"/>
+      <c r="PB24"/>
+      <c r="PC24"/>
+      <c r="PD24"/>
+      <c r="PE24"/>
+      <c r="PF24"/>
+      <c r="PG24"/>
+      <c r="PH24"/>
+      <c r="PI24"/>
+      <c r="PJ24"/>
+      <c r="PK24"/>
+      <c r="PL24"/>
+      <c r="PM24"/>
+      <c r="PN24"/>
+      <c r="PO24"/>
+      <c r="PP24"/>
+      <c r="PQ24"/>
+      <c r="PR24"/>
+      <c r="PS24"/>
+      <c r="PT24"/>
+      <c r="PU24"/>
+      <c r="PV24"/>
+      <c r="PW24"/>
+      <c r="PX24"/>
+      <c r="PY24"/>
+      <c r="PZ24"/>
+      <c r="QA24"/>
+      <c r="QB24"/>
+      <c r="QC24"/>
+      <c r="QD24"/>
+      <c r="QE24"/>
+      <c r="QF24"/>
+      <c r="QG24"/>
+      <c r="QH24"/>
+      <c r="QI24"/>
+      <c r="QJ24"/>
+      <c r="QK24"/>
+      <c r="QL24"/>
+      <c r="QM24"/>
+      <c r="QN24"/>
+      <c r="QO24"/>
+      <c r="QP24"/>
+      <c r="QQ24"/>
+      <c r="QR24"/>
+      <c r="QS24"/>
+      <c r="QT24"/>
+      <c r="QU24"/>
+      <c r="QV24"/>
+      <c r="QW24"/>
+      <c r="QX24"/>
+      <c r="QY24"/>
+      <c r="QZ24"/>
+      <c r="RA24"/>
+      <c r="RB24"/>
+      <c r="RC24"/>
+      <c r="RD24"/>
+      <c r="RE24"/>
+      <c r="RF24"/>
+      <c r="RG24"/>
+      <c r="RH24"/>
+      <c r="RI24"/>
+      <c r="RJ24" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="RK24" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="RL24" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="RM24"/>
+      <c r="RN24" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="RO24" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="RP24" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="RQ24" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="RR24" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="RS24"/>
+      <c r="RT24" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="RU24" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="RV24" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="RW24" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="RX24"/>
+      <c r="RY24" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="RZ24" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="SA24" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="SB24" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="SC24" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="SD24" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="SE24" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="SF24" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="SG24" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="SH24" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="SI24" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="SJ24" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="SK24" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="SL24" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="SM24" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="SN24" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="SO24" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="SP24" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="SQ24" t="n">
+        <v>33.46</v>
+      </c>
+      <c r="SR24" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="SS24"/>
+      <c r="ST24"/>
+      <c r="SU24"/>
+      <c r="SV24"/>
+      <c r="SW24"/>
+      <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
+      <c r="UH24"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -19167,10 +19808,10 @@
         <v>553</v>
       </c>
       <c r="AM1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
@@ -79657,7 +80298,7 @@
         <v>554</v>
       </c>
       <c r="C1165" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D1165"/>
       <c r="E1165"/>
@@ -79695,10 +80336,10 @@
       <c r="AK1165"/>
       <c r="AL1165"/>
       <c r="AM1165" t="n">
-        <v>1975.0</v>
+        <v>1974.0</v>
       </c>
       <c r="AN1165" t="n">
-        <v>0.0</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="1166">
@@ -79709,7 +80350,7 @@
         <v>554</v>
       </c>
       <c r="C1166" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D1166"/>
       <c r="E1166"/>
@@ -79761,7 +80402,7 @@
         <v>554</v>
       </c>
       <c r="C1167" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D1167"/>
       <c r="E1167"/>
@@ -79802,7 +80443,7 @@
         <v>1975.0</v>
       </c>
       <c r="AN1167" t="n">
-        <v>1444.225</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1168">
@@ -79813,7 +80454,7 @@
         <v>554</v>
       </c>
       <c r="C1168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1168"/>
       <c r="E1168"/>
@@ -79854,7 +80495,7 @@
         <v>1975.0</v>
       </c>
       <c r="AN1168" t="n">
-        <v>652.8492</v>
+        <v>1444.225</v>
       </c>
     </row>
     <row r="1169">
@@ -79865,7 +80506,7 @@
         <v>554</v>
       </c>
       <c r="C1169" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1169"/>
       <c r="E1169"/>
@@ -79906,7 +80547,7 @@
         <v>1975.0</v>
       </c>
       <c r="AN1169" t="n">
-        <v>13134.0</v>
+        <v>652.8492</v>
       </c>
     </row>
     <row r="1170">
@@ -79917,7 +80558,7 @@
         <v>554</v>
       </c>
       <c r="C1170" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D1170"/>
       <c r="E1170"/>
@@ -79958,7 +80599,7 @@
         <v>1975.0</v>
       </c>
       <c r="AN1170" t="n">
-        <v>23.0</v>
+        <v>13134.0</v>
       </c>
     </row>
     <row r="1171">
@@ -79969,7 +80610,7 @@
         <v>554</v>
       </c>
       <c r="C1171" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1171"/>
       <c r="E1171"/>
@@ -80010,7 +80651,7 @@
         <v>1975.0</v>
       </c>
       <c r="AN1171" t="n">
-        <v>18164.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="1172">
@@ -80021,7 +80662,7 @@
         <v>554</v>
       </c>
       <c r="C1172" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D1172"/>
       <c r="E1172"/>
@@ -80059,10 +80700,10 @@
       <c r="AK1172"/>
       <c r="AL1172"/>
       <c r="AM1172" t="n">
-        <v>1976.0</v>
+        <v>1975.0</v>
       </c>
       <c r="AN1172" t="n">
-        <v>0.0</v>
+        <v>18164.0</v>
       </c>
     </row>
     <row r="1173">
@@ -80073,7 +80714,7 @@
         <v>554</v>
       </c>
       <c r="C1173" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D1173"/>
       <c r="E1173"/>
@@ -80111,10 +80752,10 @@
       <c r="AK1173"/>
       <c r="AL1173"/>
       <c r="AM1173" t="n">
-        <v>1976.0</v>
+        <v>1975.0</v>
       </c>
       <c r="AN1173" t="n">
-        <v>0.0</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="1174">
@@ -80125,7 +80766,7 @@
         <v>554</v>
       </c>
       <c r="C1174" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D1174"/>
       <c r="E1174"/>
@@ -80166,7 +80807,7 @@
         <v>1976.0</v>
       </c>
       <c r="AN1174" t="n">
-        <v>1495.634</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1175">
@@ -80177,7 +80818,7 @@
         <v>554</v>
       </c>
       <c r="C1175" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1175"/>
       <c r="E1175"/>
@@ -80218,7 +80859,7 @@
         <v>1976.0</v>
       </c>
       <c r="AN1175" t="n">
-        <v>832.335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1176">
@@ -80229,7 +80870,7 @@
         <v>554</v>
       </c>
       <c r="C1176" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D1176"/>
       <c r="E1176"/>
@@ -80270,7 +80911,7 @@
         <v>1976.0</v>
       </c>
       <c r="AN1176" t="n">
-        <v>2463.0</v>
+        <v>1495.634</v>
       </c>
     </row>
     <row r="1177">
@@ -80281,7 +80922,7 @@
         <v>554</v>
       </c>
       <c r="C1177" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D1177"/>
       <c r="E1177"/>
@@ -80322,7 +80963,7 @@
         <v>1976.0</v>
       </c>
       <c r="AN1177" t="n">
-        <v>4.0</v>
+        <v>832.335</v>
       </c>
     </row>
     <row r="1178">
@@ -80333,7 +80974,7 @@
         <v>554</v>
       </c>
       <c r="C1178" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D1178"/>
       <c r="E1178"/>
@@ -80374,7 +81015,7 @@
         <v>1976.0</v>
       </c>
       <c r="AN1178" t="n">
-        <v>6214.0</v>
+        <v>2463.0</v>
       </c>
     </row>
     <row r="1179">
@@ -80385,7 +81026,7 @@
         <v>554</v>
       </c>
       <c r="C1179" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D1179"/>
       <c r="E1179"/>
@@ -80423,10 +81064,10 @@
       <c r="AK1179"/>
       <c r="AL1179"/>
       <c r="AM1179" t="n">
-        <v>1977.0</v>
+        <v>1976.0</v>
       </c>
       <c r="AN1179" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1180">
@@ -80437,7 +81078,7 @@
         <v>554</v>
       </c>
       <c r="C1180" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="D1180"/>
       <c r="E1180"/>
@@ -80475,10 +81116,10 @@
       <c r="AK1180"/>
       <c r="AL1180"/>
       <c r="AM1180" t="n">
-        <v>1977.0</v>
+        <v>1976.0</v>
       </c>
       <c r="AN1180" t="n">
-        <v>0.0</v>
+        <v>6214.0</v>
       </c>
     </row>
     <row r="1181">
@@ -80489,7 +81130,7 @@
         <v>554</v>
       </c>
       <c r="C1181" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D1181"/>
       <c r="E1181"/>
@@ -80527,10 +81168,10 @@
       <c r="AK1181"/>
       <c r="AL1181"/>
       <c r="AM1181" t="n">
-        <v>1977.0</v>
+        <v>1976.0</v>
       </c>
       <c r="AN1181" t="n">
-        <v>1539.214</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="1182">
@@ -80541,7 +81182,7 @@
         <v>554</v>
       </c>
       <c r="C1182" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D1182"/>
       <c r="E1182"/>
@@ -80582,7 +81223,7 @@
         <v>1977.0</v>
       </c>
       <c r="AN1182" t="n">
-        <v>882.3883</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1183">
@@ -80593,7 +81234,7 @@
         <v>554</v>
       </c>
       <c r="C1183" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D1183"/>
       <c r="E1183"/>
@@ -80634,7 +81275,7 @@
         <v>1977.0</v>
       </c>
       <c r="AN1183" t="n">
-        <v>4071.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1184">
@@ -80645,7 +81286,7 @@
         <v>554</v>
       </c>
       <c r="C1184" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D1184"/>
       <c r="E1184"/>
@@ -80686,7 +81327,7 @@
         <v>1977.0</v>
       </c>
       <c r="AN1184" t="n">
-        <v>15.0</v>
+        <v>1539.214</v>
       </c>
     </row>
     <row r="1185">
@@ -80697,7 +81338,7 @@
         <v>554</v>
       </c>
       <c r="C1185" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D1185"/>
       <c r="E1185"/>
@@ -80738,7 +81379,7 @@
         <v>1977.0</v>
       </c>
       <c r="AN1185" t="n">
-        <v>31608.0</v>
+        <v>882.3883</v>
       </c>
     </row>
     <row r="1186">
@@ -80749,7 +81390,7 @@
         <v>554</v>
       </c>
       <c r="C1186" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D1186"/>
       <c r="E1186"/>
@@ -80787,10 +81428,10 @@
       <c r="AK1186"/>
       <c r="AL1186"/>
       <c r="AM1186" t="n">
-        <v>1978.0</v>
+        <v>1977.0</v>
       </c>
       <c r="AN1186" t="n">
-        <v>0.0</v>
+        <v>4071.0</v>
       </c>
     </row>
     <row r="1187">
@@ -80801,7 +81442,7 @@
         <v>554</v>
       </c>
       <c r="C1187" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D1187"/>
       <c r="E1187"/>
@@ -80839,10 +81480,10 @@
       <c r="AK1187"/>
       <c r="AL1187"/>
       <c r="AM1187" t="n">
-        <v>1978.0</v>
+        <v>1977.0</v>
       </c>
       <c r="AN1187" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1188">
@@ -80853,7 +81494,7 @@
         <v>554</v>
       </c>
       <c r="C1188" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D1188"/>
       <c r="E1188"/>
@@ -80891,10 +81532,10 @@
       <c r="AK1188"/>
       <c r="AL1188"/>
       <c r="AM1188" t="n">
-        <v>1978.0</v>
+        <v>1977.0</v>
       </c>
       <c r="AN1188" t="n">
-        <v>1627.336</v>
+        <v>31608.0</v>
       </c>
     </row>
     <row r="1189">
@@ -80905,7 +81546,7 @@
         <v>554</v>
       </c>
       <c r="C1189" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D1189"/>
       <c r="E1189"/>
@@ -80946,7 +81587,7 @@
         <v>1978.0</v>
       </c>
       <c r="AN1189" t="n">
-        <v>848.6633</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1190">
@@ -80957,7 +81598,7 @@
         <v>554</v>
       </c>
       <c r="C1190" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D1190"/>
       <c r="E1190"/>
@@ -80998,7 +81639,7 @@
         <v>1978.0</v>
       </c>
       <c r="AN1190" t="n">
-        <v>3451.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1191">
@@ -81009,7 +81650,7 @@
         <v>554</v>
       </c>
       <c r="C1191" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D1191"/>
       <c r="E1191"/>
@@ -81050,7 +81691,7 @@
         <v>1978.0</v>
       </c>
       <c r="AN1191" t="n">
-        <v>7.0</v>
+        <v>1627.336</v>
       </c>
     </row>
     <row r="1192">
@@ -81061,7 +81702,7 @@
         <v>554</v>
       </c>
       <c r="C1192" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D1192"/>
       <c r="E1192"/>
@@ -81102,7 +81743,7 @@
         <v>1978.0</v>
       </c>
       <c r="AN1192" t="n">
-        <v>12664.0</v>
+        <v>848.6633</v>
       </c>
     </row>
     <row r="1193">
@@ -81113,7 +81754,7 @@
         <v>554</v>
       </c>
       <c r="C1193" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D1193"/>
       <c r="E1193"/>
@@ -81151,10 +81792,10 @@
       <c r="AK1193"/>
       <c r="AL1193"/>
       <c r="AM1193" t="n">
-        <v>1979.0</v>
+        <v>1978.0</v>
       </c>
       <c r="AN1193" t="n">
-        <v>0.0</v>
+        <v>3451.0</v>
       </c>
     </row>
     <row r="1194">
@@ -81165,7 +81806,7 @@
         <v>554</v>
       </c>
       <c r="C1194" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D1194"/>
       <c r="E1194"/>
@@ -81203,10 +81844,10 @@
       <c r="AK1194"/>
       <c r="AL1194"/>
       <c r="AM1194" t="n">
-        <v>1979.0</v>
+        <v>1978.0</v>
       </c>
       <c r="AN1194" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="1195">
@@ -81217,7 +81858,7 @@
         <v>554</v>
       </c>
       <c r="C1195" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D1195"/>
       <c r="E1195"/>
@@ -81255,10 +81896,10 @@
       <c r="AK1195"/>
       <c r="AL1195"/>
       <c r="AM1195" t="n">
-        <v>1979.0</v>
+        <v>1978.0</v>
       </c>
       <c r="AN1195" t="n">
-        <v>1759.625</v>
+        <v>12664.0</v>
       </c>
     </row>
     <row r="1196">
@@ -81269,7 +81910,7 @@
         <v>554</v>
       </c>
       <c r="C1196" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D1196"/>
       <c r="E1196"/>
@@ -81307,10 +81948,10 @@
       <c r="AK1196"/>
       <c r="AL1196"/>
       <c r="AM1196" t="n">
-        <v>1979.0</v>
+        <v>1978.0</v>
       </c>
       <c r="AN1196" t="n">
-        <v>830.8617</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="1197">
@@ -81321,7 +81962,7 @@
         <v>554</v>
       </c>
       <c r="C1197" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D1197"/>
       <c r="E1197"/>
@@ -81362,7 +82003,7 @@
         <v>1979.0</v>
       </c>
       <c r="AN1197" t="n">
-        <v>291.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1198">
@@ -81373,7 +82014,7 @@
         <v>554</v>
       </c>
       <c r="C1198" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D1198"/>
       <c r="E1198"/>
@@ -81414,7 +82055,7 @@
         <v>1979.0</v>
       </c>
       <c r="AN1198" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1199">
@@ -81425,7 +82066,7 @@
         <v>554</v>
       </c>
       <c r="C1199" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1199"/>
       <c r="E1199"/>
@@ -81466,7 +82107,7 @@
         <v>1979.0</v>
       </c>
       <c r="AN1199" t="n">
-        <v>979.0</v>
+        <v>1759.625</v>
       </c>
     </row>
     <row r="1200">
@@ -81477,7 +82118,7 @@
         <v>554</v>
       </c>
       <c r="C1200" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D1200"/>
       <c r="E1200"/>
@@ -81515,10 +82156,10 @@
       <c r="AK1200"/>
       <c r="AL1200"/>
       <c r="AM1200" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="AN1200" t="n">
-        <v>0.0</v>
+        <v>830.8617</v>
       </c>
     </row>
     <row r="1201">
@@ -81529,7 +82170,7 @@
         <v>554</v>
       </c>
       <c r="C1201" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D1201"/>
       <c r="E1201"/>
@@ -81567,10 +82208,10 @@
       <c r="AK1201"/>
       <c r="AL1201"/>
       <c r="AM1201" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="AN1201" t="n">
-        <v>0.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="1202">
@@ -81581,7 +82222,7 @@
         <v>554</v>
       </c>
       <c r="C1202" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D1202"/>
       <c r="E1202"/>
@@ -81619,10 +82260,10 @@
       <c r="AK1202"/>
       <c r="AL1202"/>
       <c r="AM1202" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="AN1202" t="n">
-        <v>0.8279064</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1203">
@@ -81633,7 +82274,7 @@
         <v>554</v>
       </c>
       <c r="C1203" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D1203"/>
       <c r="E1203"/>
@@ -81671,10 +82312,10 @@
       <c r="AK1203"/>
       <c r="AL1203"/>
       <c r="AM1203" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="AN1203" t="n">
-        <v>2.155615</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="1204">
@@ -81685,7 +82326,7 @@
         <v>554</v>
       </c>
       <c r="C1204" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="D1204"/>
       <c r="E1204"/>
@@ -81723,10 +82364,10 @@
       <c r="AK1204"/>
       <c r="AL1204"/>
       <c r="AM1204" t="n">
-        <v>1980.0</v>
+        <v>1979.0</v>
       </c>
       <c r="AN1204" t="n">
-        <v>0.04670496</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="1205">
@@ -81737,7 +82378,7 @@
         <v>554</v>
       </c>
       <c r="C1205" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D1205"/>
       <c r="E1205"/>
@@ -81778,7 +82419,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1205" t="n">
-        <v>1990.373</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1206">
@@ -81789,7 +82430,7 @@
         <v>554</v>
       </c>
       <c r="C1206" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1206"/>
       <c r="E1206"/>
@@ -81830,7 +82471,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1206" t="n">
-        <v>856.4475</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1207">
@@ -81841,7 +82482,7 @@
         <v>554</v>
       </c>
       <c r="C1207" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D1207"/>
       <c r="E1207"/>
@@ -81882,7 +82523,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1207" t="n">
-        <v>17.5</v>
+        <v>0.8279064</v>
       </c>
     </row>
     <row r="1208">
@@ -81893,7 +82534,7 @@
         <v>554</v>
       </c>
       <c r="C1208" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D1208"/>
       <c r="E1208"/>
@@ -81934,7 +82575,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1208" t="n">
-        <v>11110.0</v>
+        <v>2.155615</v>
       </c>
     </row>
     <row r="1209">
@@ -81945,7 +82586,7 @@
         <v>554</v>
       </c>
       <c r="C1209" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D1209"/>
       <c r="E1209"/>
@@ -81986,7 +82627,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1209" t="n">
-        <v>4.0</v>
+        <v>0.04670496</v>
       </c>
     </row>
     <row r="1210">
@@ -81997,7 +82638,7 @@
         <v>554</v>
       </c>
       <c r="C1210" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1210"/>
       <c r="E1210"/>
@@ -82038,7 +82679,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1210" t="n">
-        <v>11650.0</v>
+        <v>1990.373</v>
       </c>
     </row>
     <row r="1211">
@@ -82049,7 +82690,7 @@
         <v>554</v>
       </c>
       <c r="C1211" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D1211"/>
       <c r="E1211"/>
@@ -82090,7 +82731,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1211" t="n">
-        <v>0.06176271</v>
+        <v>856.4475</v>
       </c>
     </row>
     <row r="1212">
@@ -82101,7 +82742,7 @@
         <v>554</v>
       </c>
       <c r="C1212" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D1212"/>
       <c r="E1212"/>
@@ -82142,7 +82783,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1212" t="n">
-        <v>1.0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="1213">
@@ -82153,7 +82794,7 @@
         <v>554</v>
       </c>
       <c r="C1213" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D1213"/>
       <c r="E1213"/>
@@ -82194,7 +82835,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1213" t="n">
-        <v>1.322401</v>
+        <v>11110.0</v>
       </c>
     </row>
     <row r="1214">
@@ -82205,7 +82846,7 @@
         <v>554</v>
       </c>
       <c r="C1214" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D1214"/>
       <c r="E1214"/>
@@ -82246,7 +82887,7 @@
         <v>1980.0</v>
       </c>
       <c r="AN1214" t="n">
-        <v>21.463</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1215">
@@ -82257,7 +82898,7 @@
         <v>554</v>
       </c>
       <c r="C1215" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D1215"/>
       <c r="E1215"/>
@@ -82295,10 +82936,10 @@
       <c r="AK1215"/>
       <c r="AL1215"/>
       <c r="AM1215" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1215" t="n">
-        <v>0.0</v>
+        <v>11650.0</v>
       </c>
     </row>
     <row r="1216">
@@ -82309,7 +82950,7 @@
         <v>554</v>
       </c>
       <c r="C1216" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D1216"/>
       <c r="E1216"/>
@@ -82347,10 +82988,10 @@
       <c r="AK1216"/>
       <c r="AL1216"/>
       <c r="AM1216" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1216" t="n">
-        <v>0.0</v>
+        <v>0.06176271</v>
       </c>
     </row>
     <row r="1217">
@@ -82361,7 +83002,7 @@
         <v>554</v>
       </c>
       <c r="C1217" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D1217"/>
       <c r="E1217"/>
@@ -82399,10 +83040,10 @@
       <c r="AK1217"/>
       <c r="AL1217"/>
       <c r="AM1217" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1217" t="n">
-        <v>2284.306</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1218">
@@ -82413,7 +83054,7 @@
         <v>554</v>
       </c>
       <c r="C1218" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="D1218"/>
       <c r="E1218"/>
@@ -82451,10 +83092,10 @@
       <c r="AK1218"/>
       <c r="AL1218"/>
       <c r="AM1218" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1218" t="n">
-        <v>1136.765</v>
+        <v>1.322401</v>
       </c>
     </row>
     <row r="1219">
@@ -82465,7 +83106,7 @@
         <v>554</v>
       </c>
       <c r="C1219" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D1219"/>
       <c r="E1219"/>
@@ -82503,10 +83144,10 @@
       <c r="AK1219"/>
       <c r="AL1219"/>
       <c r="AM1219" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1219" t="n">
-        <v>3224.0</v>
+        <v>21.463</v>
       </c>
     </row>
     <row r="1220">
@@ -82517,7 +83158,7 @@
         <v>554</v>
       </c>
       <c r="C1220" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D1220"/>
       <c r="E1220"/>
@@ -82555,10 +83196,10 @@
       <c r="AK1220"/>
       <c r="AL1220"/>
       <c r="AM1220" t="n">
-        <v>1981.0</v>
+        <v>1980.0</v>
       </c>
       <c r="AN1220" t="n">
-        <v>5.0</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="1221">
@@ -82569,7 +83210,7 @@
         <v>554</v>
       </c>
       <c r="C1221" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="D1221"/>
       <c r="E1221"/>
@@ -82610,7 +83251,7 @@
         <v>1981.0</v>
       </c>
       <c r="AN1221" t="n">
-        <v>11019.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1222">
@@ -82621,7 +83262,7 @@
         <v>554</v>
       </c>
       <c r="C1222" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D1222"/>
       <c r="E1222"/>
@@ -82659,7 +83300,7 @@
       <c r="AK1222"/>
       <c r="AL1222"/>
       <c r="AM1222" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1222" t="n">
         <v>0.0</v>
@@ -82673,7 +83314,7 @@
         <v>554</v>
       </c>
       <c r="C1223" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D1223"/>
       <c r="E1223"/>
@@ -82711,10 +83352,10 @@
       <c r="AK1223"/>
       <c r="AL1223"/>
       <c r="AM1223" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1223" t="n">
-        <v>0.0</v>
+        <v>2284.306</v>
       </c>
     </row>
     <row r="1224">
@@ -82725,7 +83366,7 @@
         <v>554</v>
       </c>
       <c r="C1224" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D1224"/>
       <c r="E1224"/>
@@ -82763,10 +83404,10 @@
       <c r="AK1224"/>
       <c r="AL1224"/>
       <c r="AM1224" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1224" t="n">
-        <v>2362.682</v>
+        <v>1136.765</v>
       </c>
     </row>
     <row r="1225">
@@ -82777,7 +83418,7 @@
         <v>554</v>
       </c>
       <c r="C1225" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D1225"/>
       <c r="E1225"/>
@@ -82815,10 +83456,10 @@
       <c r="AK1225"/>
       <c r="AL1225"/>
       <c r="AM1225" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1225" t="n">
-        <v>1352.51</v>
+        <v>3224.0</v>
       </c>
     </row>
     <row r="1226">
@@ -82829,7 +83470,7 @@
         <v>554</v>
       </c>
       <c r="C1226" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1226"/>
       <c r="E1226"/>
@@ -82867,10 +83508,10 @@
       <c r="AK1226"/>
       <c r="AL1226"/>
       <c r="AM1226" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1226" t="n">
-        <v>6247.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="1227">
@@ -82881,7 +83522,7 @@
         <v>554</v>
       </c>
       <c r="C1227" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1227"/>
       <c r="E1227"/>
@@ -82919,10 +83560,10 @@
       <c r="AK1227"/>
       <c r="AL1227"/>
       <c r="AM1227" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1227" t="n">
-        <v>15.0</v>
+        <v>11019.0</v>
       </c>
     </row>
     <row r="1228">
@@ -82933,7 +83574,7 @@
         <v>554</v>
       </c>
       <c r="C1228" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D1228"/>
       <c r="E1228"/>
@@ -82971,10 +83612,10 @@
       <c r="AK1228"/>
       <c r="AL1228"/>
       <c r="AM1228" t="n">
-        <v>1982.0</v>
+        <v>1981.0</v>
       </c>
       <c r="AN1228" t="n">
-        <v>16981.0</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="1229">
@@ -83023,7 +83664,7 @@
       <c r="AK1229"/>
       <c r="AL1229"/>
       <c r="AM1229" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1229" t="n">
         <v>0.0</v>
@@ -83075,7 +83716,7 @@
       <c r="AK1230"/>
       <c r="AL1230"/>
       <c r="AM1230" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1230" t="n">
         <v>0.0</v>
@@ -83127,10 +83768,10 @@
       <c r="AK1231"/>
       <c r="AL1231"/>
       <c r="AM1231" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1231" t="n">
-        <v>2302.246</v>
+        <v>2362.682</v>
       </c>
     </row>
     <row r="1232">
@@ -83179,10 +83820,10 @@
       <c r="AK1232"/>
       <c r="AL1232"/>
       <c r="AM1232" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1232" t="n">
-        <v>1518.848</v>
+        <v>1352.51</v>
       </c>
     </row>
     <row r="1233">
@@ -83231,10 +83872,10 @@
       <c r="AK1233"/>
       <c r="AL1233"/>
       <c r="AM1233" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1233" t="n">
-        <v>23303.0</v>
+        <v>6247.0</v>
       </c>
     </row>
     <row r="1234">
@@ -83283,10 +83924,10 @@
       <c r="AK1234"/>
       <c r="AL1234"/>
       <c r="AM1234" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1234" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1235">
@@ -83335,10 +83976,10 @@
       <c r="AK1235"/>
       <c r="AL1235"/>
       <c r="AM1235" t="n">
-        <v>1983.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1235" t="n">
-        <v>12850.0</v>
+        <v>16981.0</v>
       </c>
     </row>
     <row r="1236">
@@ -83349,7 +83990,7 @@
         <v>554</v>
       </c>
       <c r="C1236" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D1236"/>
       <c r="E1236"/>
@@ -83387,10 +84028,10 @@
       <c r="AK1236"/>
       <c r="AL1236"/>
       <c r="AM1236" t="n">
-        <v>1984.0</v>
+        <v>1982.0</v>
       </c>
       <c r="AN1236" t="n">
-        <v>0.0</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="1237">
@@ -83401,7 +84042,7 @@
         <v>554</v>
       </c>
       <c r="C1237" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D1237"/>
       <c r="E1237"/>
@@ -83439,7 +84080,7 @@
       <c r="AK1237"/>
       <c r="AL1237"/>
       <c r="AM1237" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1237" t="n">
         <v>0.0</v>
@@ -83453,7 +84094,7 @@
         <v>554</v>
       </c>
       <c r="C1238" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D1238"/>
       <c r="E1238"/>
@@ -83491,10 +84132,10 @@
       <c r="AK1238"/>
       <c r="AL1238"/>
       <c r="AM1238" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1238" t="n">
-        <v>2336.985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1239">
@@ -83505,7 +84146,7 @@
         <v>554</v>
       </c>
       <c r="C1239" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1239"/>
       <c r="E1239"/>
@@ -83543,10 +84184,10 @@
       <c r="AK1239"/>
       <c r="AL1239"/>
       <c r="AM1239" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1239" t="n">
-        <v>1756.961</v>
+        <v>2302.246</v>
       </c>
     </row>
     <row r="1240">
@@ -83557,7 +84198,7 @@
         <v>554</v>
       </c>
       <c r="C1240" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1240"/>
       <c r="E1240"/>
@@ -83595,10 +84236,10 @@
       <c r="AK1240"/>
       <c r="AL1240"/>
       <c r="AM1240" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1240" t="n">
-        <v>1785.0</v>
+        <v>1518.848</v>
       </c>
     </row>
     <row r="1241">
@@ -83609,7 +84250,7 @@
         <v>554</v>
       </c>
       <c r="C1241" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D1241"/>
       <c r="E1241"/>
@@ -83647,10 +84288,10 @@
       <c r="AK1241"/>
       <c r="AL1241"/>
       <c r="AM1241" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1241" t="n">
-        <v>11.0</v>
+        <v>23303.0</v>
       </c>
     </row>
     <row r="1242">
@@ -83661,7 +84302,7 @@
         <v>554</v>
       </c>
       <c r="C1242" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1242"/>
       <c r="E1242"/>
@@ -83699,10 +84340,10 @@
       <c r="AK1242"/>
       <c r="AL1242"/>
       <c r="AM1242" t="n">
-        <v>1984.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1242" t="n">
-        <v>5303.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="1243">
@@ -83713,7 +84354,7 @@
         <v>554</v>
       </c>
       <c r="C1243" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D1243"/>
       <c r="E1243"/>
@@ -83751,10 +84392,10 @@
       <c r="AK1243"/>
       <c r="AL1243"/>
       <c r="AM1243" t="n">
-        <v>1985.0</v>
+        <v>1983.0</v>
       </c>
       <c r="AN1243" t="n">
-        <v>0.0</v>
+        <v>12850.0</v>
       </c>
     </row>
     <row r="1244">
@@ -83765,7 +84406,7 @@
         <v>554</v>
       </c>
       <c r="C1244" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D1244"/>
       <c r="E1244"/>
@@ -83803,7 +84444,7 @@
       <c r="AK1244"/>
       <c r="AL1244"/>
       <c r="AM1244" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1244" t="n">
         <v>0.0</v>
@@ -83817,7 +84458,7 @@
         <v>554</v>
       </c>
       <c r="C1245" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D1245"/>
       <c r="E1245"/>
@@ -83855,10 +84496,10 @@
       <c r="AK1245"/>
       <c r="AL1245"/>
       <c r="AM1245" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1245" t="n">
-        <v>2450.368</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1246">
@@ -83869,7 +84510,7 @@
         <v>554</v>
       </c>
       <c r="C1246" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1246"/>
       <c r="E1246"/>
@@ -83907,10 +84548,10 @@
       <c r="AK1246"/>
       <c r="AL1246"/>
       <c r="AM1246" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1246" t="n">
-        <v>1909.439</v>
+        <v>2336.985</v>
       </c>
     </row>
     <row r="1247">
@@ -83921,7 +84562,7 @@
         <v>554</v>
       </c>
       <c r="C1247" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1247"/>
       <c r="E1247"/>
@@ -83959,10 +84600,10 @@
       <c r="AK1247"/>
       <c r="AL1247"/>
       <c r="AM1247" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1247" t="n">
-        <v>2620.0</v>
+        <v>1756.961</v>
       </c>
     </row>
     <row r="1248">
@@ -83973,7 +84614,7 @@
         <v>554</v>
       </c>
       <c r="C1248" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D1248"/>
       <c r="E1248"/>
@@ -84011,10 +84652,10 @@
       <c r="AK1248"/>
       <c r="AL1248"/>
       <c r="AM1248" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1248" t="n">
-        <v>20.0</v>
+        <v>1785.0</v>
       </c>
     </row>
     <row r="1249">
@@ -84025,7 +84666,7 @@
         <v>554</v>
       </c>
       <c r="C1249" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1249"/>
       <c r="E1249"/>
@@ -84063,10 +84704,10 @@
       <c r="AK1249"/>
       <c r="AL1249"/>
       <c r="AM1249" t="n">
-        <v>1985.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1249" t="n">
-        <v>9799.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="1250">
@@ -84077,7 +84718,7 @@
         <v>554</v>
       </c>
       <c r="C1250" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D1250"/>
       <c r="E1250"/>
@@ -84115,10 +84756,10 @@
       <c r="AK1250"/>
       <c r="AL1250"/>
       <c r="AM1250" t="n">
-        <v>1986.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1250" t="n">
-        <v>0.0</v>
+        <v>5303.0</v>
       </c>
     </row>
     <row r="1251">
@@ -84129,7 +84770,7 @@
         <v>554</v>
       </c>
       <c r="C1251" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D1251"/>
       <c r="E1251"/>
@@ -84167,10 +84808,10 @@
       <c r="AK1251"/>
       <c r="AL1251"/>
       <c r="AM1251" t="n">
-        <v>1986.0</v>
+        <v>1984.0</v>
       </c>
       <c r="AN1251" t="n">
-        <v>0.0</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="1252">
@@ -84181,7 +84822,7 @@
         <v>554</v>
       </c>
       <c r="C1252" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D1252"/>
       <c r="E1252"/>
@@ -84219,10 +84860,10 @@
       <c r="AK1252"/>
       <c r="AL1252"/>
       <c r="AM1252" t="n">
-        <v>1986.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1252" t="n">
-        <v>2185.306</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1253">
@@ -84233,7 +84874,7 @@
         <v>554</v>
       </c>
       <c r="C1253" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1253"/>
       <c r="E1253"/>
@@ -84271,10 +84912,10 @@
       <c r="AK1253"/>
       <c r="AL1253"/>
       <c r="AM1253" t="n">
-        <v>1986.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1253" t="n">
-        <v>1490.81</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1254">
@@ -84285,7 +84926,7 @@
         <v>554</v>
       </c>
       <c r="C1254" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D1254"/>
       <c r="E1254"/>
@@ -84323,10 +84964,10 @@
       <c r="AK1254"/>
       <c r="AL1254"/>
       <c r="AM1254" t="n">
-        <v>1986.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1254" t="n">
-        <v>6706.0</v>
+        <v>2450.368</v>
       </c>
     </row>
     <row r="1255">
@@ -84337,7 +84978,7 @@
         <v>554</v>
       </c>
       <c r="C1255" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D1255"/>
       <c r="E1255"/>
@@ -84375,10 +85016,10 @@
       <c r="AK1255"/>
       <c r="AL1255"/>
       <c r="AM1255" t="n">
-        <v>1986.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1255" t="n">
-        <v>4.0</v>
+        <v>1909.439</v>
       </c>
     </row>
     <row r="1256">
@@ -84389,7 +85030,7 @@
         <v>554</v>
       </c>
       <c r="C1256" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D1256"/>
       <c r="E1256"/>
@@ -84427,10 +85068,10 @@
       <c r="AK1256"/>
       <c r="AL1256"/>
       <c r="AM1256" t="n">
-        <v>1986.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1256" t="n">
-        <v>6600.0</v>
+        <v>2620.0</v>
       </c>
     </row>
     <row r="1257">
@@ -84441,7 +85082,7 @@
         <v>554</v>
       </c>
       <c r="C1257" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D1257"/>
       <c r="E1257"/>
@@ -84479,10 +85120,10 @@
       <c r="AK1257"/>
       <c r="AL1257"/>
       <c r="AM1257" t="n">
-        <v>1987.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1257" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="1258">
@@ -84493,7 +85134,7 @@
         <v>554</v>
       </c>
       <c r="C1258" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="D1258"/>
       <c r="E1258"/>
@@ -84531,10 +85172,10 @@
       <c r="AK1258"/>
       <c r="AL1258"/>
       <c r="AM1258" t="n">
-        <v>1987.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1258" t="n">
-        <v>0.0</v>
+        <v>9799.0</v>
       </c>
     </row>
     <row r="1259">
@@ -84545,7 +85186,7 @@
         <v>554</v>
       </c>
       <c r="C1259" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D1259"/>
       <c r="E1259"/>
@@ -84583,10 +85224,10 @@
       <c r="AK1259"/>
       <c r="AL1259"/>
       <c r="AM1259" t="n">
-        <v>1987.0</v>
+        <v>1985.0</v>
       </c>
       <c r="AN1259" t="n">
-        <v>2118.016</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="1260">
@@ -84597,7 +85238,7 @@
         <v>554</v>
       </c>
       <c r="C1260" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D1260"/>
       <c r="E1260"/>
@@ -84635,10 +85276,10 @@
       <c r="AK1260"/>
       <c r="AL1260"/>
       <c r="AM1260" t="n">
-        <v>1987.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1260" t="n">
-        <v>1296.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1261">
@@ -84649,7 +85290,7 @@
         <v>554</v>
       </c>
       <c r="C1261" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D1261"/>
       <c r="E1261"/>
@@ -84687,10 +85328,10 @@
       <c r="AK1261"/>
       <c r="AL1261"/>
       <c r="AM1261" t="n">
-        <v>1987.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1261" t="n">
-        <v>581.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1262">
@@ -84701,7 +85342,7 @@
         <v>554</v>
       </c>
       <c r="C1262" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D1262"/>
       <c r="E1262"/>
@@ -84739,10 +85380,10 @@
       <c r="AK1262"/>
       <c r="AL1262"/>
       <c r="AM1262" t="n">
-        <v>1987.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1262" t="n">
-        <v>17.0</v>
+        <v>2185.306</v>
       </c>
     </row>
     <row r="1263">
@@ -84753,7 +85394,7 @@
         <v>554</v>
       </c>
       <c r="C1263" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D1263"/>
       <c r="E1263"/>
@@ -84791,10 +85432,10 @@
       <c r="AK1263"/>
       <c r="AL1263"/>
       <c r="AM1263" t="n">
-        <v>1987.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1263" t="n">
-        <v>4683.0</v>
+        <v>1490.81</v>
       </c>
     </row>
     <row r="1264">
@@ -84805,7 +85446,7 @@
         <v>554</v>
       </c>
       <c r="C1264" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D1264"/>
       <c r="E1264"/>
@@ -84843,10 +85484,10 @@
       <c r="AK1264"/>
       <c r="AL1264"/>
       <c r="AM1264" t="n">
-        <v>1988.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1264" t="n">
-        <v>0.0</v>
+        <v>6706.0</v>
       </c>
     </row>
     <row r="1265">
@@ -84857,7 +85498,7 @@
         <v>554</v>
       </c>
       <c r="C1265" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D1265"/>
       <c r="E1265"/>
@@ -84895,10 +85536,10 @@
       <c r="AK1265"/>
       <c r="AL1265"/>
       <c r="AM1265" t="n">
-        <v>1988.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1265" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1266">
@@ -84909,7 +85550,7 @@
         <v>554</v>
       </c>
       <c r="C1266" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D1266"/>
       <c r="E1266"/>
@@ -84947,10 +85588,10 @@
       <c r="AK1266"/>
       <c r="AL1266"/>
       <c r="AM1266" t="n">
-        <v>1988.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1266" t="n">
-        <v>2315.362</v>
+        <v>6600.0</v>
       </c>
     </row>
     <row r="1267">
@@ -84961,7 +85602,7 @@
         <v>554</v>
       </c>
       <c r="C1267" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D1267"/>
       <c r="E1267"/>
@@ -84999,10 +85640,10 @@
       <c r="AK1267"/>
       <c r="AL1267"/>
       <c r="AM1267" t="n">
-        <v>1988.0</v>
+        <v>1986.0</v>
       </c>
       <c r="AN1267" t="n">
-        <v>1301.628</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="1268">
@@ -85013,7 +85654,7 @@
         <v>554</v>
       </c>
       <c r="C1268" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D1268"/>
       <c r="E1268"/>
@@ -85051,10 +85692,10 @@
       <c r="AK1268"/>
       <c r="AL1268"/>
       <c r="AM1268" t="n">
-        <v>1988.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1268" t="n">
-        <v>713.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1269">
@@ -85065,7 +85706,7 @@
         <v>554</v>
       </c>
       <c r="C1269" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D1269"/>
       <c r="E1269"/>
@@ -85103,10 +85744,10 @@
       <c r="AK1269"/>
       <c r="AL1269"/>
       <c r="AM1269" t="n">
-        <v>1988.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1269" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1270">
@@ -85117,7 +85758,7 @@
         <v>554</v>
       </c>
       <c r="C1270" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1270"/>
       <c r="E1270"/>
@@ -85155,10 +85796,10 @@
       <c r="AK1270"/>
       <c r="AL1270"/>
       <c r="AM1270" t="n">
-        <v>1988.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1270" t="n">
-        <v>1139.0</v>
+        <v>2118.016</v>
       </c>
     </row>
     <row r="1271">
@@ -85169,7 +85810,7 @@
         <v>554</v>
       </c>
       <c r="C1271" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D1271"/>
       <c r="E1271"/>
@@ -85207,10 +85848,10 @@
       <c r="AK1271"/>
       <c r="AL1271"/>
       <c r="AM1271" t="n">
-        <v>1989.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1271" t="n">
-        <v>0.0</v>
+        <v>1296.07</v>
       </c>
     </row>
     <row r="1272">
@@ -85221,7 +85862,7 @@
         <v>554</v>
       </c>
       <c r="C1272" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D1272"/>
       <c r="E1272"/>
@@ -85259,10 +85900,10 @@
       <c r="AK1272"/>
       <c r="AL1272"/>
       <c r="AM1272" t="n">
-        <v>1989.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1272" t="n">
-        <v>0.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="1273">
@@ -85273,7 +85914,7 @@
         <v>554</v>
       </c>
       <c r="C1273" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D1273"/>
       <c r="E1273"/>
@@ -85311,10 +85952,10 @@
       <c r="AK1273"/>
       <c r="AL1273"/>
       <c r="AM1273" t="n">
-        <v>1989.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1273" t="n">
-        <v>2245.017</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="1274">
@@ -85325,7 +85966,7 @@
         <v>554</v>
       </c>
       <c r="C1274" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D1274"/>
       <c r="E1274"/>
@@ -85363,10 +86004,10 @@
       <c r="AK1274"/>
       <c r="AL1274"/>
       <c r="AM1274" t="n">
-        <v>1989.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1274" t="n">
-        <v>1372.093</v>
+        <v>4683.0</v>
       </c>
     </row>
     <row r="1275">
@@ -85377,7 +86018,7 @@
         <v>554</v>
       </c>
       <c r="C1275" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D1275"/>
       <c r="E1275"/>
@@ -85415,10 +86056,10 @@
       <c r="AK1275"/>
       <c r="AL1275"/>
       <c r="AM1275" t="n">
-        <v>1989.0</v>
+        <v>1987.0</v>
       </c>
       <c r="AN1275" t="n">
-        <v>44317.0</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="1276">
@@ -85429,7 +86070,7 @@
         <v>554</v>
       </c>
       <c r="C1276" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D1276"/>
       <c r="E1276"/>
@@ -85467,10 +86108,10 @@
       <c r="AK1276"/>
       <c r="AL1276"/>
       <c r="AM1276" t="n">
-        <v>1989.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1276" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1277">
@@ -85481,7 +86122,7 @@
         <v>554</v>
       </c>
       <c r="C1277" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D1277"/>
       <c r="E1277"/>
@@ -85519,10 +86160,10 @@
       <c r="AK1277"/>
       <c r="AL1277"/>
       <c r="AM1277" t="n">
-        <v>1989.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1277" t="n">
-        <v>25400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1278">
@@ -85533,7 +86174,7 @@
         <v>554</v>
       </c>
       <c r="C1278" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D1278"/>
       <c r="E1278"/>
@@ -85571,10 +86212,10 @@
       <c r="AK1278"/>
       <c r="AL1278"/>
       <c r="AM1278" t="n">
-        <v>1990.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1278" t="n">
-        <v>0.0</v>
+        <v>2315.362</v>
       </c>
     </row>
     <row r="1279">
@@ -85585,7 +86226,7 @@
         <v>554</v>
       </c>
       <c r="C1279" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D1279"/>
       <c r="E1279"/>
@@ -85623,10 +86264,10 @@
       <c r="AK1279"/>
       <c r="AL1279"/>
       <c r="AM1279" t="n">
-        <v>1990.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1279" t="n">
-        <v>0.0</v>
+        <v>1301.628</v>
       </c>
     </row>
     <row r="1280">
@@ -85637,7 +86278,7 @@
         <v>554</v>
       </c>
       <c r="C1280" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D1280"/>
       <c r="E1280"/>
@@ -85675,10 +86316,10 @@
       <c r="AK1280"/>
       <c r="AL1280"/>
       <c r="AM1280" t="n">
-        <v>1990.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1280" t="n">
-        <v>0.7896719</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="1281">
@@ -85689,7 +86330,7 @@
         <v>554</v>
       </c>
       <c r="C1281" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D1281"/>
       <c r="E1281"/>
@@ -85727,10 +86368,10 @@
       <c r="AK1281"/>
       <c r="AL1281"/>
       <c r="AM1281" t="n">
-        <v>1990.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1281" t="n">
-        <v>2.472582</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="1282">
@@ -85741,7 +86382,7 @@
         <v>554</v>
       </c>
       <c r="C1282" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D1282"/>
       <c r="E1282"/>
@@ -85779,10 +86420,10 @@
       <c r="AK1282"/>
       <c r="AL1282"/>
       <c r="AM1282" t="n">
-        <v>1990.0</v>
+        <v>1988.0</v>
       </c>
       <c r="AN1282" t="n">
-        <v>0.04139758</v>
+        <v>1139.0</v>
       </c>
     </row>
     <row r="1283">
@@ -85793,7 +86434,7 @@
         <v>554</v>
       </c>
       <c r="C1283" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D1283"/>
       <c r="E1283"/>
@@ -85831,10 +86472,10 @@
       <c r="AK1283"/>
       <c r="AL1283"/>
       <c r="AM1283" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1283" t="n">
-        <v>2127.397</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1284">
@@ -85845,7 +86486,7 @@
         <v>554</v>
       </c>
       <c r="C1284" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1284"/>
       <c r="E1284"/>
@@ -85883,10 +86524,10 @@
       <c r="AK1284"/>
       <c r="AL1284"/>
       <c r="AM1284" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1284" t="n">
-        <v>1198.102</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1285">
@@ -85897,7 +86538,7 @@
         <v>554</v>
       </c>
       <c r="C1285" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D1285"/>
       <c r="E1285"/>
@@ -85935,10 +86576,10 @@
       <c r="AK1285"/>
       <c r="AL1285"/>
       <c r="AM1285" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1285" t="n">
-        <v>82.5</v>
+        <v>2245.017</v>
       </c>
     </row>
     <row r="1286">
@@ -85949,7 +86590,7 @@
         <v>554</v>
       </c>
       <c r="C1286" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D1286"/>
       <c r="E1286"/>
@@ -85987,10 +86628,10 @@
       <c r="AK1286"/>
       <c r="AL1286"/>
       <c r="AM1286" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1286" t="n">
-        <v>75.9</v>
+        <v>1372.093</v>
       </c>
     </row>
     <row r="1287">
@@ -86039,10 +86680,10 @@
       <c r="AK1287"/>
       <c r="AL1287"/>
       <c r="AM1287" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1287" t="n">
-        <v>3591.0</v>
+        <v>44317.0</v>
       </c>
     </row>
     <row r="1288">
@@ -86091,10 +86732,10 @@
       <c r="AK1288"/>
       <c r="AL1288"/>
       <c r="AM1288" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1288" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="1289">
@@ -86143,10 +86784,10 @@
       <c r="AK1289"/>
       <c r="AL1289"/>
       <c r="AM1289" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1289" t="n">
-        <v>6923.0</v>
+        <v>25400.0</v>
       </c>
     </row>
     <row r="1290">
@@ -86157,7 +86798,7 @@
         <v>554</v>
       </c>
       <c r="C1290" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D1290"/>
       <c r="E1290"/>
@@ -86195,10 +86836,10 @@
       <c r="AK1290"/>
       <c r="AL1290"/>
       <c r="AM1290" t="n">
-        <v>1990.0</v>
+        <v>1989.0</v>
       </c>
       <c r="AN1290" t="n">
-        <v>0.1204819</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="1291">
@@ -86209,7 +86850,7 @@
         <v>554</v>
       </c>
       <c r="C1291" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="D1291"/>
       <c r="E1291"/>
@@ -86250,7 +86891,7 @@
         <v>1990.0</v>
       </c>
       <c r="AN1291" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1292">
@@ -86261,7 +86902,7 @@
         <v>554</v>
       </c>
       <c r="C1292" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D1292"/>
       <c r="E1292"/>
@@ -86302,7 +86943,7 @@
         <v>1990.0</v>
       </c>
       <c r="AN1292" t="n">
-        <v>2.910361</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1293">
@@ -86313,7 +86954,7 @@
         <v>554</v>
       </c>
       <c r="C1293" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D1293"/>
       <c r="E1293"/>
@@ -86354,7 +86995,7 @@
         <v>1990.0</v>
       </c>
       <c r="AN1293" t="n">
-        <v>23.469</v>
+        <v>0.7896719</v>
       </c>
     </row>
     <row r="1294">
@@ -86365,7 +87006,7 @@
         <v>554</v>
       </c>
       <c r="C1294" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D1294"/>
       <c r="E1294"/>
@@ -86403,10 +87044,10 @@
       <c r="AK1294"/>
       <c r="AL1294"/>
       <c r="AM1294" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1294" t="n">
-        <v>0.0</v>
+        <v>2.472582</v>
       </c>
     </row>
     <row r="1295">
@@ -86417,7 +87058,7 @@
         <v>554</v>
       </c>
       <c r="C1295" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D1295"/>
       <c r="E1295"/>
@@ -86455,10 +87096,10 @@
       <c r="AK1295"/>
       <c r="AL1295"/>
       <c r="AM1295" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1295" t="n">
-        <v>0.0</v>
+        <v>0.04139758</v>
       </c>
     </row>
     <row r="1296">
@@ -86507,10 +87148,10 @@
       <c r="AK1296"/>
       <c r="AL1296"/>
       <c r="AM1296" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1296" t="n">
-        <v>2187.971</v>
+        <v>2127.397</v>
       </c>
     </row>
     <row r="1297">
@@ -86559,10 +87200,10 @@
       <c r="AK1297"/>
       <c r="AL1297"/>
       <c r="AM1297" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1297" t="n">
-        <v>1240.613</v>
+        <v>1198.102</v>
       </c>
     </row>
     <row r="1298">
@@ -86573,7 +87214,7 @@
         <v>554</v>
       </c>
       <c r="C1298" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D1298"/>
       <c r="E1298"/>
@@ -86611,10 +87252,10 @@
       <c r="AK1298"/>
       <c r="AL1298"/>
       <c r="AM1298" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1298" t="n">
-        <v>66.0</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="1299">
@@ -86625,7 +87266,7 @@
         <v>554</v>
       </c>
       <c r="C1299" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D1299"/>
       <c r="E1299"/>
@@ -86663,10 +87304,10 @@
       <c r="AK1299"/>
       <c r="AL1299"/>
       <c r="AM1299" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1299" t="n">
-        <v>6.0</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="1300">
@@ -86677,7 +87318,7 @@
         <v>554</v>
       </c>
       <c r="C1300" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D1300"/>
       <c r="E1300"/>
@@ -86715,10 +87356,10 @@
       <c r="AK1300"/>
       <c r="AL1300"/>
       <c r="AM1300" t="n">
-        <v>1991.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1300" t="n">
-        <v>119.0</v>
+        <v>3591.0</v>
       </c>
     </row>
     <row r="1301">
@@ -86729,7 +87370,7 @@
         <v>554</v>
       </c>
       <c r="C1301" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D1301"/>
       <c r="E1301"/>
@@ -86767,10 +87408,10 @@
       <c r="AK1301"/>
       <c r="AL1301"/>
       <c r="AM1301" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1301" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="1302">
@@ -86781,7 +87422,7 @@
         <v>554</v>
       </c>
       <c r="C1302" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="D1302"/>
       <c r="E1302"/>
@@ -86819,10 +87460,10 @@
       <c r="AK1302"/>
       <c r="AL1302"/>
       <c r="AM1302" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1302" t="n">
-        <v>0.0</v>
+        <v>6923.0</v>
       </c>
     </row>
     <row r="1303">
@@ -86833,7 +87474,7 @@
         <v>554</v>
       </c>
       <c r="C1303" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D1303"/>
       <c r="E1303"/>
@@ -86871,10 +87512,10 @@
       <c r="AK1303"/>
       <c r="AL1303"/>
       <c r="AM1303" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1303" t="n">
-        <v>2162.972</v>
+        <v>0.1204819</v>
       </c>
     </row>
     <row r="1304">
@@ -86885,7 +87526,7 @@
         <v>554</v>
       </c>
       <c r="C1304" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D1304"/>
       <c r="E1304"/>
@@ -86923,10 +87564,10 @@
       <c r="AK1304"/>
       <c r="AL1304"/>
       <c r="AM1304" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1304" t="n">
-        <v>1232.406</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1305">
@@ -86937,7 +87578,7 @@
         <v>554</v>
       </c>
       <c r="C1305" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D1305"/>
       <c r="E1305"/>
@@ -86975,10 +87616,10 @@
       <c r="AK1305"/>
       <c r="AL1305"/>
       <c r="AM1305" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1305" t="n">
-        <v>15.0</v>
+        <v>2.910361</v>
       </c>
     </row>
     <row r="1306">
@@ -86989,7 +87630,7 @@
         <v>554</v>
       </c>
       <c r="C1306" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D1306"/>
       <c r="E1306"/>
@@ -87027,10 +87668,10 @@
       <c r="AK1306"/>
       <c r="AL1306"/>
       <c r="AM1306" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1306" t="n">
-        <v>1.0</v>
+        <v>23.469</v>
       </c>
     </row>
     <row r="1307">
@@ -87041,7 +87682,7 @@
         <v>554</v>
       </c>
       <c r="C1307" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D1307"/>
       <c r="E1307"/>
@@ -87079,10 +87720,10 @@
       <c r="AK1307"/>
       <c r="AL1307"/>
       <c r="AM1307" t="n">
-        <v>1992.0</v>
+        <v>1990.0</v>
       </c>
       <c r="AN1307" t="n">
-        <v>15.0</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="1308">
@@ -87093,7 +87734,7 @@
         <v>554</v>
       </c>
       <c r="C1308" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D1308"/>
       <c r="E1308"/>
@@ -87131,10 +87772,10 @@
       <c r="AK1308"/>
       <c r="AL1308"/>
       <c r="AM1308" t="n">
-        <v>1992.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1308" t="n">
-        <v>1.566906</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1309">
@@ -87145,7 +87786,7 @@
         <v>554</v>
       </c>
       <c r="C1309" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D1309"/>
       <c r="E1309"/>
@@ -87183,7 +87824,7 @@
       <c r="AK1309"/>
       <c r="AL1309"/>
       <c r="AM1309" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1309" t="n">
         <v>0.0</v>
@@ -87197,7 +87838,7 @@
         <v>554</v>
       </c>
       <c r="C1310" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D1310"/>
       <c r="E1310"/>
@@ -87235,10 +87876,10 @@
       <c r="AK1310"/>
       <c r="AL1310"/>
       <c r="AM1310" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1310" t="n">
-        <v>0.0</v>
+        <v>2187.971</v>
       </c>
     </row>
     <row r="1311">
@@ -87249,7 +87890,7 @@
         <v>554</v>
       </c>
       <c r="C1311" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D1311"/>
       <c r="E1311"/>
@@ -87287,10 +87928,10 @@
       <c r="AK1311"/>
       <c r="AL1311"/>
       <c r="AM1311" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1311" t="n">
-        <v>2360.181</v>
+        <v>1240.613</v>
       </c>
     </row>
     <row r="1312">
@@ -87301,7 +87942,7 @@
         <v>554</v>
       </c>
       <c r="C1312" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D1312"/>
       <c r="E1312"/>
@@ -87339,10 +87980,10 @@
       <c r="AK1312"/>
       <c r="AL1312"/>
       <c r="AM1312" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1312" t="n">
-        <v>1573.666</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="1313">
@@ -87353,7 +87994,7 @@
         <v>554</v>
       </c>
       <c r="C1313" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1313"/>
       <c r="E1313"/>
@@ -87391,10 +88032,10 @@
       <c r="AK1313"/>
       <c r="AL1313"/>
       <c r="AM1313" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1313" t="n">
-        <v>142.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="1314">
@@ -87405,7 +88046,7 @@
         <v>554</v>
       </c>
       <c r="C1314" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1314"/>
       <c r="E1314"/>
@@ -87443,10 +88084,10 @@
       <c r="AK1314"/>
       <c r="AL1314"/>
       <c r="AM1314" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1314" t="n">
-        <v>8.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="1315">
@@ -87457,7 +88098,7 @@
         <v>554</v>
       </c>
       <c r="C1315" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D1315"/>
       <c r="E1315"/>
@@ -87495,10 +88136,10 @@
       <c r="AK1315"/>
       <c r="AL1315"/>
       <c r="AM1315" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="AN1315" t="n">
-        <v>183.0</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="1316">
@@ -87509,7 +88150,7 @@
         <v>554</v>
       </c>
       <c r="C1316" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D1316"/>
       <c r="E1316"/>
@@ -87547,10 +88188,10 @@
       <c r="AK1316"/>
       <c r="AL1316"/>
       <c r="AM1316" t="n">
-        <v>1993.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1316" t="n">
-        <v>1.575578</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1317">
@@ -87561,7 +88202,7 @@
         <v>554</v>
       </c>
       <c r="C1317" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D1317"/>
       <c r="E1317"/>
@@ -87599,7 +88240,7 @@
       <c r="AK1317"/>
       <c r="AL1317"/>
       <c r="AM1317" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1317" t="n">
         <v>0.0</v>
@@ -87613,7 +88254,7 @@
         <v>554</v>
       </c>
       <c r="C1318" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D1318"/>
       <c r="E1318"/>
@@ -87651,10 +88292,10 @@
       <c r="AK1318"/>
       <c r="AL1318"/>
       <c r="AM1318" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1318" t="n">
-        <v>0.0</v>
+        <v>2162.972</v>
       </c>
     </row>
     <row r="1319">
@@ -87665,7 +88306,7 @@
         <v>554</v>
       </c>
       <c r="C1319" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D1319"/>
       <c r="E1319"/>
@@ -87703,10 +88344,10 @@
       <c r="AK1319"/>
       <c r="AL1319"/>
       <c r="AM1319" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1319" t="n">
-        <v>2467.676</v>
+        <v>1232.406</v>
       </c>
     </row>
     <row r="1320">
@@ -87717,7 +88358,7 @@
         <v>554</v>
       </c>
       <c r="C1320" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D1320"/>
       <c r="E1320"/>
@@ -87755,10 +88396,10 @@
       <c r="AK1320"/>
       <c r="AL1320"/>
       <c r="AM1320" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1320" t="n">
-        <v>1612.445</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1321">
@@ -87769,7 +88410,7 @@
         <v>554</v>
       </c>
       <c r="C1321" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1321"/>
       <c r="E1321"/>
@@ -87807,10 +88448,10 @@
       <c r="AK1321"/>
       <c r="AL1321"/>
       <c r="AM1321" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1321" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1322">
@@ -87821,7 +88462,7 @@
         <v>554</v>
       </c>
       <c r="C1322" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1322"/>
       <c r="E1322"/>
@@ -87859,10 +88500,10 @@
       <c r="AK1322"/>
       <c r="AL1322"/>
       <c r="AM1322" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1322" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1323">
@@ -87873,7 +88514,7 @@
         <v>554</v>
       </c>
       <c r="C1323" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D1323"/>
       <c r="E1323"/>
@@ -87911,10 +88552,10 @@
       <c r="AK1323"/>
       <c r="AL1323"/>
       <c r="AM1323" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1323" t="n">
-        <v>31.0</v>
+        <v>1.566906</v>
       </c>
     </row>
     <row r="1324">
@@ -87925,7 +88566,7 @@
         <v>554</v>
       </c>
       <c r="C1324" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D1324"/>
       <c r="E1324"/>
@@ -87963,10 +88604,10 @@
       <c r="AK1324"/>
       <c r="AL1324"/>
       <c r="AM1324" t="n">
-        <v>1994.0</v>
+        <v>1992.0</v>
       </c>
       <c r="AN1324" t="n">
-        <v>1.572985</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="1325">
@@ -88015,7 +88656,7 @@
       <c r="AK1325"/>
       <c r="AL1325"/>
       <c r="AM1325" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1325" t="n">
         <v>0.0</v>
@@ -88067,7 +88708,7 @@
       <c r="AK1326"/>
       <c r="AL1326"/>
       <c r="AM1326" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1326" t="n">
         <v>0.0</v>
@@ -88119,10 +88760,10 @@
       <c r="AK1327"/>
       <c r="AL1327"/>
       <c r="AM1327" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1327" t="n">
-        <v>2570.641</v>
+        <v>2360.181</v>
       </c>
     </row>
     <row r="1328">
@@ -88171,10 +88812,10 @@
       <c r="AK1328"/>
       <c r="AL1328"/>
       <c r="AM1328" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1328" t="n">
-        <v>1628.933</v>
+        <v>1573.666</v>
       </c>
     </row>
     <row r="1329">
@@ -88185,7 +88826,7 @@
         <v>554</v>
       </c>
       <c r="C1329" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1329"/>
       <c r="E1329"/>
@@ -88223,10 +88864,10 @@
       <c r="AK1329"/>
       <c r="AL1329"/>
       <c r="AM1329" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1329" t="n">
-        <v>0.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="1330">
@@ -88237,7 +88878,7 @@
         <v>554</v>
       </c>
       <c r="C1330" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1330"/>
       <c r="E1330"/>
@@ -88275,10 +88916,10 @@
       <c r="AK1330"/>
       <c r="AL1330"/>
       <c r="AM1330" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1330" t="n">
-        <v>1903.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="1331">
@@ -88289,7 +88930,7 @@
         <v>554</v>
       </c>
       <c r="C1331" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1331"/>
       <c r="E1331"/>
@@ -88327,10 +88968,10 @@
       <c r="AK1331"/>
       <c r="AL1331"/>
       <c r="AM1331" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1331" t="n">
-        <v>4.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="1332">
@@ -88341,7 +88982,7 @@
         <v>554</v>
       </c>
       <c r="C1332" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D1332"/>
       <c r="E1332"/>
@@ -88379,10 +89020,10 @@
       <c r="AK1332"/>
       <c r="AL1332"/>
       <c r="AM1332" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1332" t="n">
-        <v>5470.0</v>
+        <v>1.575578</v>
       </c>
     </row>
     <row r="1333">
@@ -88393,7 +89034,7 @@
         <v>554</v>
       </c>
       <c r="C1333" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D1333"/>
       <c r="E1333"/>
@@ -88431,10 +89072,10 @@
       <c r="AK1333"/>
       <c r="AL1333"/>
       <c r="AM1333" t="n">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="AN1333" t="n">
-        <v>1.553421</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="1334">
@@ -88483,7 +89124,7 @@
       <c r="AK1334"/>
       <c r="AL1334"/>
       <c r="AM1334" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1334" t="n">
         <v>0.0</v>
@@ -88535,7 +89176,7 @@
       <c r="AK1335"/>
       <c r="AL1335"/>
       <c r="AM1335" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1335" t="n">
         <v>0.0</v>
@@ -88587,10 +89228,10 @@
       <c r="AK1336"/>
       <c r="AL1336"/>
       <c r="AM1336" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1336" t="n">
-        <v>2407.25</v>
+        <v>2467.676</v>
       </c>
     </row>
     <row r="1337">
@@ -88639,10 +89280,10 @@
       <c r="AK1337"/>
       <c r="AL1337"/>
       <c r="AM1337" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1337" t="n">
-        <v>1542.947</v>
+        <v>1612.445</v>
       </c>
     </row>
     <row r="1338">
@@ -88653,7 +89294,7 @@
         <v>554</v>
       </c>
       <c r="C1338" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1338"/>
       <c r="E1338"/>
@@ -88691,10 +89332,10 @@
       <c r="AK1338"/>
       <c r="AL1338"/>
       <c r="AM1338" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1338" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="1339">
@@ -88705,7 +89346,7 @@
         <v>554</v>
       </c>
       <c r="C1339" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1339"/>
       <c r="E1339"/>
@@ -88743,10 +89384,10 @@
       <c r="AK1339"/>
       <c r="AL1339"/>
       <c r="AM1339" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1339" t="n">
-        <v>1040.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1340">
@@ -88757,7 +89398,7 @@
         <v>554</v>
       </c>
       <c r="C1340" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D1340"/>
       <c r="E1340"/>
@@ -88795,10 +89436,10 @@
       <c r="AK1340"/>
       <c r="AL1340"/>
       <c r="AM1340" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1340" t="n">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="1341">
@@ -88809,7 +89450,7 @@
         <v>554</v>
       </c>
       <c r="C1341" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D1341"/>
       <c r="E1341"/>
@@ -88847,10 +89488,10 @@
       <c r="AK1341"/>
       <c r="AL1341"/>
       <c r="AM1341" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1341" t="n">
-        <v>520.0</v>
+        <v>1.572985</v>
       </c>
     </row>
     <row r="1342">
@@ -88861,7 +89502,7 @@
         <v>554</v>
       </c>
       <c r="C1342" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D1342"/>
       <c r="E1342"/>
@@ -88899,10 +89540,10 @@
       <c r="AK1342"/>
       <c r="AL1342"/>
       <c r="AM1342" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="AN1342" t="n">
-        <v>1.566829</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="1343">
@@ -88951,7 +89592,7 @@
       <c r="AK1343"/>
       <c r="AL1343"/>
       <c r="AM1343" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1343" t="n">
         <v>0.0</v>
@@ -89003,7 +89644,7 @@
       <c r="AK1344"/>
       <c r="AL1344"/>
       <c r="AM1344" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1344" t="n">
         <v>0.0</v>
@@ -89055,10 +89696,10 @@
       <c r="AK1345"/>
       <c r="AL1345"/>
       <c r="AM1345" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1345" t="n">
-        <v>2788.14</v>
+        <v>2570.641</v>
       </c>
     </row>
     <row r="1346">
@@ -89107,10 +89748,10 @@
       <c r="AK1346"/>
       <c r="AL1346"/>
       <c r="AM1346" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1346" t="n">
-        <v>1703.097</v>
+        <v>1628.933</v>
       </c>
     </row>
     <row r="1347">
@@ -89159,7 +89800,7 @@
       <c r="AK1347"/>
       <c r="AL1347"/>
       <c r="AM1347" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1347" t="n">
         <v>0.0</v>
@@ -89211,10 +89852,10 @@
       <c r="AK1348"/>
       <c r="AL1348"/>
       <c r="AM1348" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1348" t="n">
-        <v>198.0</v>
+        <v>1903.0</v>
       </c>
     </row>
     <row r="1349">
@@ -89263,10 +89904,10 @@
       <c r="AK1349"/>
       <c r="AL1349"/>
       <c r="AM1349" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1349" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1350">
@@ -89315,10 +89956,10 @@
       <c r="AK1350"/>
       <c r="AL1350"/>
       <c r="AM1350" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1350" t="n">
-        <v>446.0</v>
+        <v>5470.0</v>
       </c>
     </row>
     <row r="1351">
@@ -89367,10 +90008,10 @@
       <c r="AK1351"/>
       <c r="AL1351"/>
       <c r="AM1351" t="n">
-        <v>1997.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1351" t="n">
-        <v>1.574321</v>
+        <v>1.553421</v>
       </c>
     </row>
     <row r="1352">
@@ -89381,7 +90022,7 @@
         <v>554</v>
       </c>
       <c r="C1352" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D1352"/>
       <c r="E1352"/>
@@ -89419,10 +90060,10 @@
       <c r="AK1352"/>
       <c r="AL1352"/>
       <c r="AM1352" t="n">
-        <v>1998.0</v>
+        <v>1995.0</v>
       </c>
       <c r="AN1352" t="n">
-        <v>0.0</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="1353">
@@ -89433,7 +90074,7 @@
         <v>554</v>
       </c>
       <c r="C1353" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D1353"/>
       <c r="E1353"/>
@@ -89471,7 +90112,7 @@
       <c r="AK1353"/>
       <c r="AL1353"/>
       <c r="AM1353" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1353" t="n">
         <v>0.0</v>
@@ -89485,7 +90126,7 @@
         <v>554</v>
       </c>
       <c r="C1354" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D1354"/>
       <c r="E1354"/>
@@ -89523,10 +90164,10 @@
       <c r="AK1354"/>
       <c r="AL1354"/>
       <c r="AM1354" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1354" t="n">
-        <v>2875.355</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1355">
@@ -89537,7 +90178,7 @@
         <v>554</v>
       </c>
       <c r="C1355" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1355"/>
       <c r="E1355"/>
@@ -89575,10 +90216,10 @@
       <c r="AK1355"/>
       <c r="AL1355"/>
       <c r="AM1355" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1355" t="n">
-        <v>1736.207</v>
+        <v>2407.25</v>
       </c>
     </row>
     <row r="1356">
@@ -89589,7 +90230,7 @@
         <v>554</v>
       </c>
       <c r="C1356" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D1356"/>
       <c r="E1356"/>
@@ -89627,10 +90268,10 @@
       <c r="AK1356"/>
       <c r="AL1356"/>
       <c r="AM1356" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1356" t="n">
-        <v>0.0</v>
+        <v>1542.947</v>
       </c>
     </row>
     <row r="1357">
@@ -89641,7 +90282,7 @@
         <v>554</v>
       </c>
       <c r="C1357" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D1357"/>
       <c r="E1357"/>
@@ -89679,10 +90320,10 @@
       <c r="AK1357"/>
       <c r="AL1357"/>
       <c r="AM1357" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1357" t="n">
-        <v>20704.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1358">
@@ -89693,7 +90334,7 @@
         <v>554</v>
       </c>
       <c r="C1358" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D1358"/>
       <c r="E1358"/>
@@ -89731,10 +90372,10 @@
       <c r="AK1358"/>
       <c r="AL1358"/>
       <c r="AM1358" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1358" t="n">
-        <v>10.0</v>
+        <v>1040.0</v>
       </c>
     </row>
     <row r="1359">
@@ -89745,7 +90386,7 @@
         <v>554</v>
       </c>
       <c r="C1359" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1359"/>
       <c r="E1359"/>
@@ -89783,10 +90424,10 @@
       <c r="AK1359"/>
       <c r="AL1359"/>
       <c r="AM1359" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1359" t="n">
-        <v>6088.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1360">
@@ -89797,7 +90438,7 @@
         <v>554</v>
       </c>
       <c r="C1360" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D1360"/>
       <c r="E1360"/>
@@ -89835,10 +90476,10 @@
       <c r="AK1360"/>
       <c r="AL1360"/>
       <c r="AM1360" t="n">
-        <v>1998.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1360" t="n">
-        <v>1.577646</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="1361">
@@ -89849,7 +90490,7 @@
         <v>554</v>
       </c>
       <c r="C1361" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="D1361"/>
       <c r="E1361"/>
@@ -89887,10 +90528,10 @@
       <c r="AK1361"/>
       <c r="AL1361"/>
       <c r="AM1361" t="n">
-        <v>1999.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1361" t="n">
-        <v>0.0</v>
+        <v>1.566829</v>
       </c>
     </row>
     <row r="1362">
@@ -89901,7 +90542,7 @@
         <v>554</v>
       </c>
       <c r="C1362" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D1362"/>
       <c r="E1362"/>
@@ -89939,10 +90580,10 @@
       <c r="AK1362"/>
       <c r="AL1362"/>
       <c r="AM1362" t="n">
-        <v>1999.0</v>
+        <v>1996.0</v>
       </c>
       <c r="AN1362" t="n">
-        <v>0.0</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="1363">
@@ -89953,7 +90594,7 @@
         <v>554</v>
       </c>
       <c r="C1363" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D1363"/>
       <c r="E1363"/>
@@ -89991,10 +90632,10 @@
       <c r="AK1363"/>
       <c r="AL1363"/>
       <c r="AM1363" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1363" t="n">
-        <v>1.518675</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1364">
@@ -90005,7 +90646,7 @@
         <v>554</v>
       </c>
       <c r="C1364" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1364"/>
       <c r="E1364"/>
@@ -90043,10 +90684,10 @@
       <c r="AK1364"/>
       <c r="AL1364"/>
       <c r="AM1364" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1364" t="n">
-        <v>0.9386273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1365">
@@ -90057,7 +90698,7 @@
         <v>554</v>
       </c>
       <c r="C1365" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D1365"/>
       <c r="E1365"/>
@@ -90095,10 +90736,10 @@
       <c r="AK1365"/>
       <c r="AL1365"/>
       <c r="AM1365" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1365" t="n">
-        <v>0.0</v>
+        <v>2788.14</v>
       </c>
     </row>
     <row r="1366">
@@ -90109,7 +90750,7 @@
         <v>554</v>
       </c>
       <c r="C1366" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1366"/>
       <c r="E1366"/>
@@ -90147,10 +90788,10 @@
       <c r="AK1366"/>
       <c r="AL1366"/>
       <c r="AM1366" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1366" t="n">
-        <v>1250.0</v>
+        <v>1703.097</v>
       </c>
     </row>
     <row r="1367">
@@ -90161,7 +90802,7 @@
         <v>554</v>
       </c>
       <c r="C1367" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D1367"/>
       <c r="E1367"/>
@@ -90199,10 +90840,10 @@
       <c r="AK1367"/>
       <c r="AL1367"/>
       <c r="AM1367" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1367" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1368">
@@ -90213,7 +90854,7 @@
         <v>554</v>
       </c>
       <c r="C1368" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D1368"/>
       <c r="E1368"/>
@@ -90251,10 +90892,10 @@
       <c r="AK1368"/>
       <c r="AL1368"/>
       <c r="AM1368" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1368" t="n">
-        <v>3500.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="1369">
@@ -90265,7 +90906,7 @@
         <v>554</v>
       </c>
       <c r="C1369" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D1369"/>
       <c r="E1369"/>
@@ -90303,10 +90944,10 @@
       <c r="AK1369"/>
       <c r="AL1369"/>
       <c r="AM1369" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1369" t="n">
-        <v>1.574711</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="1370">
@@ -90317,7 +90958,7 @@
         <v>554</v>
       </c>
       <c r="C1370" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="D1370"/>
       <c r="E1370"/>
@@ -90355,10 +90996,10 @@
       <c r="AK1370"/>
       <c r="AL1370"/>
       <c r="AM1370" t="n">
-        <v>2000.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1370" t="n">
-        <v>0.0</v>
+        <v>446.0</v>
       </c>
     </row>
     <row r="1371">
@@ -90369,7 +91010,7 @@
         <v>554</v>
       </c>
       <c r="C1371" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="D1371"/>
       <c r="E1371"/>
@@ -90407,10 +91048,10 @@
       <c r="AK1371"/>
       <c r="AL1371"/>
       <c r="AM1371" t="n">
-        <v>2000.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1371" t="n">
-        <v>0.0</v>
+        <v>1.574321</v>
       </c>
     </row>
     <row r="1372">
@@ -90421,7 +91062,7 @@
         <v>554</v>
       </c>
       <c r="C1372" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="D1372"/>
       <c r="E1372"/>
@@ -90459,10 +91100,10 @@
       <c r="AK1372"/>
       <c r="AL1372"/>
       <c r="AM1372" t="n">
-        <v>2000.0</v>
+        <v>1997.0</v>
       </c>
       <c r="AN1372" t="n">
-        <v>0.8867464</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="1373">
@@ -90473,7 +91114,7 @@
         <v>554</v>
       </c>
       <c r="C1373" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D1373"/>
       <c r="E1373"/>
@@ -90511,10 +91152,10 @@
       <c r="AK1373"/>
       <c r="AL1373"/>
       <c r="AM1373" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1373" t="n">
-        <v>2.650331</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1374">
@@ -90525,7 +91166,7 @@
         <v>554</v>
       </c>
       <c r="C1374" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D1374"/>
       <c r="E1374"/>
@@ -90563,10 +91204,10 @@
       <c r="AK1374"/>
       <c r="AL1374"/>
       <c r="AM1374" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1374" t="n">
-        <v>0.03710988</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1375">
@@ -90615,10 +91256,10 @@
       <c r="AK1375"/>
       <c r="AL1375"/>
       <c r="AM1375" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1375" t="n">
-        <v>1.642231</v>
+        <v>2875.355</v>
       </c>
     </row>
     <row r="1376">
@@ -90667,10 +91308,10 @@
       <c r="AK1376"/>
       <c r="AL1376"/>
       <c r="AM1376" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1376" t="n">
-        <v>1.085401</v>
+        <v>1736.207</v>
       </c>
     </row>
     <row r="1377">
@@ -90681,7 +91322,7 @@
         <v>554</v>
       </c>
       <c r="C1377" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D1377"/>
       <c r="E1377"/>
@@ -90719,10 +91360,10 @@
       <c r="AK1377"/>
       <c r="AL1377"/>
       <c r="AM1377" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1377" t="n">
-        <v>84.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1378">
@@ -90733,7 +91374,7 @@
         <v>554</v>
       </c>
       <c r="C1378" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D1378"/>
       <c r="E1378"/>
@@ -90771,10 +91412,10 @@
       <c r="AK1378"/>
       <c r="AL1378"/>
       <c r="AM1378" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1378" t="n">
-        <v>0.0</v>
+        <v>20704.0</v>
       </c>
     </row>
     <row r="1379">
@@ -90785,7 +91426,7 @@
         <v>554</v>
       </c>
       <c r="C1379" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D1379"/>
       <c r="E1379"/>
@@ -90823,10 +91464,10 @@
       <c r="AK1379"/>
       <c r="AL1379"/>
       <c r="AM1379" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1379" t="n">
-        <v>77.4</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="1380">
@@ -90837,7 +91478,7 @@
         <v>554</v>
       </c>
       <c r="C1380" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D1380"/>
       <c r="E1380"/>
@@ -90875,10 +91516,10 @@
       <c r="AK1380"/>
       <c r="AL1380"/>
       <c r="AM1380" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1380" t="n">
-        <v>1250.0</v>
+        <v>6088.0</v>
       </c>
     </row>
     <row r="1381">
@@ -90889,7 +91530,7 @@
         <v>554</v>
       </c>
       <c r="C1381" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D1381"/>
       <c r="E1381"/>
@@ -90927,10 +91568,10 @@
       <c r="AK1381"/>
       <c r="AL1381"/>
       <c r="AM1381" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1381" t="n">
-        <v>3.0</v>
+        <v>1.577646</v>
       </c>
     </row>
     <row r="1382">
@@ -90941,7 +91582,7 @@
         <v>554</v>
       </c>
       <c r="C1382" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D1382"/>
       <c r="E1382"/>
@@ -90979,10 +91620,10 @@
       <c r="AK1382"/>
       <c r="AL1382"/>
       <c r="AM1382" t="n">
-        <v>2000.0</v>
+        <v>1998.0</v>
       </c>
       <c r="AN1382" t="n">
-        <v>3500.0</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="1383">
@@ -90993,7 +91634,7 @@
         <v>554</v>
       </c>
       <c r="C1383" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D1383"/>
       <c r="E1383"/>
@@ -91031,10 +91672,10 @@
       <c r="AK1383"/>
       <c r="AL1383"/>
       <c r="AM1383" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1383" t="n">
-        <v>0.1763565</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1384">
@@ -91045,7 +91686,7 @@
         <v>554</v>
       </c>
       <c r="C1384" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D1384"/>
       <c r="E1384"/>
@@ -91083,10 +91724,10 @@
       <c r="AK1384"/>
       <c r="AL1384"/>
       <c r="AM1384" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1384" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1385">
@@ -91097,7 +91738,7 @@
         <v>554</v>
       </c>
       <c r="C1385" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D1385"/>
       <c r="E1385"/>
@@ -91135,10 +91776,10 @@
       <c r="AK1385"/>
       <c r="AL1385"/>
       <c r="AM1385" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1385" t="n">
-        <v>4.752278</v>
+        <v>1.518675</v>
       </c>
     </row>
     <row r="1386">
@@ -91149,7 +91790,7 @@
         <v>554</v>
       </c>
       <c r="C1386" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D1386"/>
       <c r="E1386"/>
@@ -91187,10 +91828,10 @@
       <c r="AK1386"/>
       <c r="AL1386"/>
       <c r="AM1386" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1386" t="n">
-        <v>26.937</v>
+        <v>0.9386273</v>
       </c>
     </row>
     <row r="1387">
@@ -91201,7 +91842,7 @@
         <v>554</v>
       </c>
       <c r="C1387" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D1387"/>
       <c r="E1387"/>
@@ -91239,10 +91880,10 @@
       <c r="AK1387"/>
       <c r="AL1387"/>
       <c r="AM1387" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1387" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1388">
@@ -91253,7 +91894,7 @@
         <v>554</v>
       </c>
       <c r="C1388" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D1388"/>
       <c r="E1388"/>
@@ -91291,10 +91932,10 @@
       <c r="AK1388"/>
       <c r="AL1388"/>
       <c r="AM1388" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1388" t="n">
-        <v>1.610991</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="1389">
@@ -91305,7 +91946,7 @@
         <v>554</v>
       </c>
       <c r="C1389" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D1389"/>
       <c r="E1389"/>
@@ -91343,10 +91984,10 @@
       <c r="AK1389"/>
       <c r="AL1389"/>
       <c r="AM1389" t="n">
-        <v>2000.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1389" t="n">
-        <v>0.1484946</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1390">
@@ -91357,7 +91998,7 @@
         <v>554</v>
       </c>
       <c r="C1390" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D1390"/>
       <c r="E1390"/>
@@ -91395,10 +92036,10 @@
       <c r="AK1390"/>
       <c r="AL1390"/>
       <c r="AM1390" t="n">
-        <v>2001.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1390" t="n">
-        <v>1.608727</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="1391">
@@ -91409,7 +92050,7 @@
         <v>554</v>
       </c>
       <c r="C1391" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D1391"/>
       <c r="E1391"/>
@@ -91447,10 +92088,10 @@
       <c r="AK1391"/>
       <c r="AL1391"/>
       <c r="AM1391" t="n">
-        <v>2001.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1391" t="n">
-        <v>1.11751</v>
+        <v>1.574711</v>
       </c>
     </row>
     <row r="1392">
@@ -91461,7 +92102,7 @@
         <v>554</v>
       </c>
       <c r="C1392" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D1392"/>
       <c r="E1392"/>
@@ -91499,10 +92140,10 @@
       <c r="AK1392"/>
       <c r="AL1392"/>
       <c r="AM1392" t="n">
-        <v>2001.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AN1392" t="n">
-        <v>20045.0</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="1393">
@@ -91513,7 +92154,7 @@
         <v>554</v>
       </c>
       <c r="C1393" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D1393"/>
       <c r="E1393"/>
@@ -91551,10 +92192,10 @@
       <c r="AK1393"/>
       <c r="AL1393"/>
       <c r="AM1393" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1393" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1394">
@@ -91565,7 +92206,7 @@
         <v>554</v>
       </c>
       <c r="C1394" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D1394"/>
       <c r="E1394"/>
@@ -91603,10 +92244,10 @@
       <c r="AK1394"/>
       <c r="AL1394"/>
       <c r="AM1394" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1394" t="n">
-        <v>5015.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1395">
@@ -91617,7 +92258,7 @@
         <v>554</v>
       </c>
       <c r="C1395" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="D1395"/>
       <c r="E1395"/>
@@ -91655,10 +92296,10 @@
       <c r="AK1395"/>
       <c r="AL1395"/>
       <c r="AM1395" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1395" t="n">
-        <v>1.581201</v>
+        <v>0.8867464</v>
       </c>
     </row>
     <row r="1396">
@@ -91669,7 +92310,7 @@
         <v>554</v>
       </c>
       <c r="C1396" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D1396"/>
       <c r="E1396"/>
@@ -91707,10 +92348,10 @@
       <c r="AK1396"/>
       <c r="AL1396"/>
       <c r="AM1396" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1396" t="n">
-        <v>1.592498</v>
+        <v>2.650331</v>
       </c>
     </row>
     <row r="1397">
@@ -91721,7 +92362,7 @@
         <v>554</v>
       </c>
       <c r="C1397" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D1397"/>
       <c r="E1397"/>
@@ -91759,10 +92400,10 @@
       <c r="AK1397"/>
       <c r="AL1397"/>
       <c r="AM1397" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1397" t="n">
-        <v>1.062552</v>
+        <v>0.03710988</v>
       </c>
     </row>
     <row r="1398">
@@ -91773,7 +92414,7 @@
         <v>554</v>
       </c>
       <c r="C1398" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D1398"/>
       <c r="E1398"/>
@@ -91811,10 +92452,10 @@
       <c r="AK1398"/>
       <c r="AL1398"/>
       <c r="AM1398" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1398" t="n">
-        <v>3.55</v>
+        <v>1.642231</v>
       </c>
     </row>
     <row r="1399">
@@ -91825,7 +92466,7 @@
         <v>554</v>
       </c>
       <c r="C1399" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1399"/>
       <c r="E1399"/>
@@ -91863,10 +92504,10 @@
       <c r="AK1399"/>
       <c r="AL1399"/>
       <c r="AM1399" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1399" t="n">
-        <v>454520.0</v>
+        <v>1.085401</v>
       </c>
     </row>
     <row r="1400">
@@ -91877,7 +92518,7 @@
         <v>554</v>
       </c>
       <c r="C1400" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D1400"/>
       <c r="E1400"/>
@@ -91915,10 +92556,10 @@
       <c r="AK1400"/>
       <c r="AL1400"/>
       <c r="AM1400" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1400" t="n">
-        <v>13.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="1401">
@@ -91929,7 +92570,7 @@
         <v>554</v>
       </c>
       <c r="C1401" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D1401"/>
       <c r="E1401"/>
@@ -91967,10 +92608,10 @@
       <c r="AK1401"/>
       <c r="AL1401"/>
       <c r="AM1401" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1401" t="n">
-        <v>71300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1402">
@@ -91981,7 +92622,7 @@
         <v>554</v>
       </c>
       <c r="C1402" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D1402"/>
       <c r="E1402"/>
@@ -92019,10 +92660,10 @@
       <c r="AK1402"/>
       <c r="AL1402"/>
       <c r="AM1402" t="n">
-        <v>2002.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1402" t="n">
-        <v>1.58047</v>
+        <v>77.4</v>
       </c>
     </row>
     <row r="1403">
@@ -92033,7 +92674,7 @@
         <v>554</v>
       </c>
       <c r="C1403" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D1403"/>
       <c r="E1403"/>
@@ -92071,10 +92712,10 @@
       <c r="AK1403"/>
       <c r="AL1403"/>
       <c r="AM1403" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1403" t="n">
-        <v>1.446651</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="1404">
@@ -92085,7 +92726,7 @@
         <v>554</v>
       </c>
       <c r="C1404" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D1404"/>
       <c r="E1404"/>
@@ -92123,10 +92764,10 @@
       <c r="AK1404"/>
       <c r="AL1404"/>
       <c r="AM1404" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1404" t="n">
-        <v>0.8860342</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1405">
@@ -92137,7 +92778,7 @@
         <v>554</v>
       </c>
       <c r="C1405" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D1405"/>
       <c r="E1405"/>
@@ -92175,10 +92816,10 @@
       <c r="AK1405"/>
       <c r="AL1405"/>
       <c r="AM1405" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1405" t="n">
-        <v>7343.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="1406">
@@ -92189,7 +92830,7 @@
         <v>554</v>
       </c>
       <c r="C1406" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D1406"/>
       <c r="E1406"/>
@@ -92227,10 +92868,10 @@
       <c r="AK1406"/>
       <c r="AL1406"/>
       <c r="AM1406" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1406" t="n">
-        <v>7.0</v>
+        <v>0.1763565</v>
       </c>
     </row>
     <row r="1407">
@@ -92241,7 +92882,7 @@
         <v>554</v>
       </c>
       <c r="C1407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D1407"/>
       <c r="E1407"/>
@@ -92279,10 +92920,10 @@
       <c r="AK1407"/>
       <c r="AL1407"/>
       <c r="AM1407" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1407" t="n">
-        <v>2148.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1408">
@@ -92293,7 +92934,7 @@
         <v>554</v>
       </c>
       <c r="C1408" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D1408"/>
       <c r="E1408"/>
@@ -92331,10 +92972,10 @@
       <c r="AK1408"/>
       <c r="AL1408"/>
       <c r="AM1408" t="n">
-        <v>2003.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1408" t="n">
-        <v>1.577797</v>
+        <v>4.752278</v>
       </c>
     </row>
     <row r="1409">
@@ -92345,7 +92986,7 @@
         <v>554</v>
       </c>
       <c r="C1409" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D1409"/>
       <c r="E1409"/>
@@ -92383,10 +93024,10 @@
       <c r="AK1409"/>
       <c r="AL1409"/>
       <c r="AM1409" t="n">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1409" t="n">
-        <v>1.474541</v>
+        <v>26.937</v>
       </c>
     </row>
     <row r="1410">
@@ -92397,7 +93038,7 @@
         <v>554</v>
       </c>
       <c r="C1410" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="D1410"/>
       <c r="E1410"/>
@@ -92435,10 +93076,10 @@
       <c r="AK1410"/>
       <c r="AL1410"/>
       <c r="AM1410" t="n">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1410" t="n">
-        <v>0.805365</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1411">
@@ -92449,7 +93090,7 @@
         <v>554</v>
       </c>
       <c r="C1411" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D1411"/>
       <c r="E1411"/>
@@ -92487,10 +93128,10 @@
       <c r="AK1411"/>
       <c r="AL1411"/>
       <c r="AM1411" t="n">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1411" t="n">
-        <v>1.4</v>
+        <v>1.610991</v>
       </c>
     </row>
     <row r="1412">
@@ -92501,7 +93142,7 @@
         <v>554</v>
       </c>
       <c r="C1412" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D1412"/>
       <c r="E1412"/>
@@ -92539,10 +93180,10 @@
       <c r="AK1412"/>
       <c r="AL1412"/>
       <c r="AM1412" t="n">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1412" t="n">
-        <v>3500.0</v>
+        <v>0.1484946</v>
       </c>
     </row>
     <row r="1413">
@@ -92553,7 +93194,7 @@
         <v>554</v>
       </c>
       <c r="C1413" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D1413"/>
       <c r="E1413"/>
@@ -92591,10 +93232,10 @@
       <c r="AK1413"/>
       <c r="AL1413"/>
       <c r="AM1413" t="n">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AN1413" t="n">
-        <v>1.0</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="1414">
@@ -92605,7 +93246,7 @@
         <v>554</v>
       </c>
       <c r="C1414" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1414"/>
       <c r="E1414"/>
@@ -92643,10 +93284,10 @@
       <c r="AK1414"/>
       <c r="AL1414"/>
       <c r="AM1414" t="n">
-        <v>2004.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1414" t="n">
-        <v>70.0</v>
+        <v>1.608727</v>
       </c>
     </row>
     <row r="1415">
@@ -92657,7 +93298,7 @@
         <v>554</v>
       </c>
       <c r="C1415" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D1415"/>
       <c r="E1415"/>
@@ -92695,10 +93336,10 @@
       <c r="AK1415"/>
       <c r="AL1415"/>
       <c r="AM1415" t="n">
-        <v>2004.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1415" t="n">
-        <v>1.577353</v>
+        <v>1.11751</v>
       </c>
     </row>
     <row r="1416">
@@ -92709,7 +93350,7 @@
         <v>554</v>
       </c>
       <c r="C1416" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D1416"/>
       <c r="E1416"/>
@@ -92747,10 +93388,10 @@
       <c r="AK1416"/>
       <c r="AL1416"/>
       <c r="AM1416" t="n">
-        <v>2005.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1416" t="n">
-        <v>1.462041</v>
+        <v>20045.0</v>
       </c>
     </row>
     <row r="1417">
@@ -92761,7 +93402,7 @@
         <v>554</v>
       </c>
       <c r="C1417" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D1417"/>
       <c r="E1417"/>
@@ -92799,10 +93440,10 @@
       <c r="AK1417"/>
       <c r="AL1417"/>
       <c r="AM1417" t="n">
-        <v>2005.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1417" t="n">
-        <v>0.80412</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1418">
@@ -92813,7 +93454,7 @@
         <v>554</v>
       </c>
       <c r="C1418" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D1418"/>
       <c r="E1418"/>
@@ -92851,10 +93492,10 @@
       <c r="AK1418"/>
       <c r="AL1418"/>
       <c r="AM1418" t="n">
-        <v>2005.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1418" t="n">
-        <v>0.0</v>
+        <v>5015.0</v>
       </c>
     </row>
     <row r="1419">
@@ -92865,7 +93506,7 @@
         <v>554</v>
       </c>
       <c r="C1419" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D1419"/>
       <c r="E1419"/>
@@ -92903,10 +93544,10 @@
       <c r="AK1419"/>
       <c r="AL1419"/>
       <c r="AM1419" t="n">
-        <v>2005.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1419" t="n">
-        <v>1.7</v>
+        <v>1.581201</v>
       </c>
     </row>
     <row r="1420">
@@ -92917,7 +93558,7 @@
         <v>554</v>
       </c>
       <c r="C1420" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D1420"/>
       <c r="E1420"/>
@@ -92955,10 +93596,10 @@
       <c r="AK1420"/>
       <c r="AL1420"/>
       <c r="AM1420" t="n">
-        <v>2005.0</v>
+        <v>2001.0</v>
       </c>
       <c r="AN1420" t="n">
-        <v>24000.0</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="1421">
@@ -92969,7 +93610,7 @@
         <v>554</v>
       </c>
       <c r="C1421" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D1421"/>
       <c r="E1421"/>
@@ -93007,10 +93648,10 @@
       <c r="AK1421"/>
       <c r="AL1421"/>
       <c r="AM1421" t="n">
-        <v>2005.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1421" t="n">
-        <v>2.0</v>
+        <v>1.592498</v>
       </c>
     </row>
     <row r="1422">
@@ -93021,7 +93662,7 @@
         <v>554</v>
       </c>
       <c r="C1422" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D1422"/>
       <c r="E1422"/>
@@ -93059,10 +93700,10 @@
       <c r="AK1422"/>
       <c r="AL1422"/>
       <c r="AM1422" t="n">
-        <v>2005.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1422" t="n">
-        <v>4000.0</v>
+        <v>1.062552</v>
       </c>
     </row>
     <row r="1423">
@@ -93073,7 +93714,7 @@
         <v>554</v>
       </c>
       <c r="C1423" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D1423"/>
       <c r="E1423"/>
@@ -93111,10 +93752,10 @@
       <c r="AK1423"/>
       <c r="AL1423"/>
       <c r="AM1423" t="n">
-        <v>2005.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1423" t="n">
-        <v>1.573284</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="1424">
@@ -93125,7 +93766,7 @@
         <v>554</v>
       </c>
       <c r="C1424" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D1424"/>
       <c r="E1424"/>
@@ -93163,10 +93804,10 @@
       <c r="AK1424"/>
       <c r="AL1424"/>
       <c r="AM1424" t="n">
-        <v>2006.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1424" t="n">
-        <v>1.466716</v>
+        <v>454520.0</v>
       </c>
     </row>
     <row r="1425">
@@ -93177,7 +93818,7 @@
         <v>554</v>
       </c>
       <c r="C1425" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D1425"/>
       <c r="E1425"/>
@@ -93215,10 +93856,10 @@
       <c r="AK1425"/>
       <c r="AL1425"/>
       <c r="AM1425" t="n">
-        <v>2006.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1425" t="n">
-        <v>0.7971408</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="1426">
@@ -93229,7 +93870,7 @@
         <v>554</v>
       </c>
       <c r="C1426" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D1426"/>
       <c r="E1426"/>
@@ -93267,10 +93908,10 @@
       <c r="AK1426"/>
       <c r="AL1426"/>
       <c r="AM1426" t="n">
-        <v>2006.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1426" t="n">
-        <v>2.1</v>
+        <v>71300.0</v>
       </c>
     </row>
     <row r="1427">
@@ -93281,7 +93922,7 @@
         <v>554</v>
       </c>
       <c r="C1427" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D1427"/>
       <c r="E1427"/>
@@ -93319,10 +93960,10 @@
       <c r="AK1427"/>
       <c r="AL1427"/>
       <c r="AM1427" t="n">
-        <v>2006.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1427" t="n">
-        <v>0.0</v>
+        <v>1.58047</v>
       </c>
     </row>
     <row r="1428">
@@ -93333,7 +93974,7 @@
         <v>554</v>
       </c>
       <c r="C1428" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D1428"/>
       <c r="E1428"/>
@@ -93371,10 +94012,10 @@
       <c r="AK1428"/>
       <c r="AL1428"/>
       <c r="AM1428" t="n">
-        <v>2006.0</v>
+        <v>2002.0</v>
       </c>
       <c r="AN1428" t="n">
-        <v>0.0</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="1429">
@@ -93385,7 +94026,7 @@
         <v>554</v>
       </c>
       <c r="C1429" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1429"/>
       <c r="E1429"/>
@@ -93423,10 +94064,10 @@
       <c r="AK1429"/>
       <c r="AL1429"/>
       <c r="AM1429" t="n">
-        <v>2006.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1429" t="n">
-        <v>0.0</v>
+        <v>1.446651</v>
       </c>
     </row>
     <row r="1430">
@@ -93437,7 +94078,7 @@
         <v>554</v>
       </c>
       <c r="C1430" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D1430"/>
       <c r="E1430"/>
@@ -93475,10 +94116,10 @@
       <c r="AK1430"/>
       <c r="AL1430"/>
       <c r="AM1430" t="n">
-        <v>2006.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1430" t="n">
-        <v>1.571223</v>
+        <v>0.8860342</v>
       </c>
     </row>
     <row r="1431">
@@ -93489,7 +94130,7 @@
         <v>554</v>
       </c>
       <c r="C1431" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D1431"/>
       <c r="E1431"/>
@@ -93527,10 +94168,10 @@
       <c r="AK1431"/>
       <c r="AL1431"/>
       <c r="AM1431" t="n">
-        <v>2007.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1431" t="n">
-        <v>1.461943</v>
+        <v>7343.0</v>
       </c>
     </row>
     <row r="1432">
@@ -93541,7 +94182,7 @@
         <v>554</v>
       </c>
       <c r="C1432" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D1432"/>
       <c r="E1432"/>
@@ -93579,10 +94220,10 @@
       <c r="AK1432"/>
       <c r="AL1432"/>
       <c r="AM1432" t="n">
-        <v>2007.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1432" t="n">
-        <v>0.7306375</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="1433">
@@ -93593,7 +94234,7 @@
         <v>554</v>
       </c>
       <c r="C1433" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D1433"/>
       <c r="E1433"/>
@@ -93631,10 +94272,10 @@
       <c r="AK1433"/>
       <c r="AL1433"/>
       <c r="AM1433" t="n">
-        <v>2007.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1433" t="n">
-        <v>2.5</v>
+        <v>2148.0</v>
       </c>
     </row>
     <row r="1434">
@@ -93645,7 +94286,7 @@
         <v>554</v>
       </c>
       <c r="C1434" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D1434"/>
       <c r="E1434"/>
@@ -93683,10 +94324,10 @@
       <c r="AK1434"/>
       <c r="AL1434"/>
       <c r="AM1434" t="n">
-        <v>2007.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1434" t="n">
-        <v>0.0</v>
+        <v>1.577797</v>
       </c>
     </row>
     <row r="1435">
@@ -93697,7 +94338,7 @@
         <v>554</v>
       </c>
       <c r="C1435" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D1435"/>
       <c r="E1435"/>
@@ -93735,10 +94376,10 @@
       <c r="AK1435"/>
       <c r="AL1435"/>
       <c r="AM1435" t="n">
-        <v>2007.0</v>
+        <v>2003.0</v>
       </c>
       <c r="AN1435" t="n">
-        <v>0.0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="1436">
@@ -93749,7 +94390,7 @@
         <v>554</v>
       </c>
       <c r="C1436" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D1436"/>
       <c r="E1436"/>
@@ -93787,10 +94428,10 @@
       <c r="AK1436"/>
       <c r="AL1436"/>
       <c r="AM1436" t="n">
-        <v>2007.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1436" t="n">
-        <v>0.0</v>
+        <v>1.474541</v>
       </c>
     </row>
     <row r="1437">
@@ -93801,7 +94442,7 @@
         <v>554</v>
       </c>
       <c r="C1437" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D1437"/>
       <c r="E1437"/>
@@ -93839,10 +94480,10 @@
       <c r="AK1437"/>
       <c r="AL1437"/>
       <c r="AM1437" t="n">
-        <v>2007.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1437" t="n">
-        <v>1.576689</v>
+        <v>0.805365</v>
       </c>
     </row>
     <row r="1438">
@@ -93853,7 +94494,7 @@
         <v>554</v>
       </c>
       <c r="C1438" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D1438"/>
       <c r="E1438"/>
@@ -93891,10 +94532,10 @@
       <c r="AK1438"/>
       <c r="AL1438"/>
       <c r="AM1438" t="n">
-        <v>2008.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1438" t="n">
-        <v>1.254995</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="1439">
@@ -93905,7 +94546,7 @@
         <v>554</v>
       </c>
       <c r="C1439" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D1439"/>
       <c r="E1439"/>
@@ -93943,10 +94584,10 @@
       <c r="AK1439"/>
       <c r="AL1439"/>
       <c r="AM1439" t="n">
-        <v>2008.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1439" t="n">
-        <v>0.6826747</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="1440">
@@ -93957,7 +94598,7 @@
         <v>554</v>
       </c>
       <c r="C1440" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D1440"/>
       <c r="E1440"/>
@@ -93995,10 +94636,10 @@
       <c r="AK1440"/>
       <c r="AL1440"/>
       <c r="AM1440" t="n">
-        <v>2008.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1440" t="n">
-        <v>4.3</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1441">
@@ -94009,7 +94650,7 @@
         <v>554</v>
       </c>
       <c r="C1441" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D1441"/>
       <c r="E1441"/>
@@ -94047,10 +94688,10 @@
       <c r="AK1441"/>
       <c r="AL1441"/>
       <c r="AM1441" t="n">
-        <v>2008.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1441" t="n">
-        <v>1.563662</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="1442">
@@ -94061,7 +94702,7 @@
         <v>554</v>
       </c>
       <c r="C1442" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D1442"/>
       <c r="E1442"/>
@@ -94099,10 +94740,10 @@
       <c r="AK1442"/>
       <c r="AL1442"/>
       <c r="AM1442" t="n">
-        <v>2009.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1442" t="n">
-        <v>1.121392</v>
+        <v>1.577353</v>
       </c>
     </row>
     <row r="1443">
@@ -94113,7 +94754,7 @@
         <v>554</v>
       </c>
       <c r="C1443" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D1443"/>
       <c r="E1443"/>
@@ -94151,10 +94792,10 @@
       <c r="AK1443"/>
       <c r="AL1443"/>
       <c r="AM1443" t="n">
-        <v>2009.0</v>
+        <v>2004.0</v>
       </c>
       <c r="AN1443" t="n">
-        <v>0.7198434</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="1444">
@@ -94165,7 +94806,7 @@
         <v>554</v>
       </c>
       <c r="C1444" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D1444"/>
       <c r="E1444"/>
@@ -94203,10 +94844,10 @@
       <c r="AK1444"/>
       <c r="AL1444"/>
       <c r="AM1444" t="n">
-        <v>2009.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1444" t="n">
-        <v>2.2</v>
+        <v>1.462041</v>
       </c>
     </row>
     <row r="1445">
@@ -94217,7 +94858,7 @@
         <v>554</v>
       </c>
       <c r="C1445" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1445"/>
       <c r="E1445"/>
@@ -94255,10 +94896,10 @@
       <c r="AK1445"/>
       <c r="AL1445"/>
       <c r="AM1445" t="n">
-        <v>2009.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1445" t="n">
-        <v>8250.0</v>
+        <v>0.80412</v>
       </c>
     </row>
     <row r="1446">
@@ -94269,7 +94910,7 @@
         <v>554</v>
       </c>
       <c r="C1446" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D1446"/>
       <c r="E1446"/>
@@ -94307,10 +94948,10 @@
       <c r="AK1446"/>
       <c r="AL1446"/>
       <c r="AM1446" t="n">
-        <v>2009.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1446" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1447">
@@ -94321,7 +94962,7 @@
         <v>554</v>
       </c>
       <c r="C1447" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D1447"/>
       <c r="E1447"/>
@@ -94359,10 +95000,10 @@
       <c r="AK1447"/>
       <c r="AL1447"/>
       <c r="AM1447" t="n">
-        <v>2009.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1447" t="n">
-        <v>2200.0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="1448">
@@ -94373,7 +95014,7 @@
         <v>554</v>
       </c>
       <c r="C1448" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D1448"/>
       <c r="E1448"/>
@@ -94411,10 +95052,10 @@
       <c r="AK1448"/>
       <c r="AL1448"/>
       <c r="AM1448" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1448" t="n">
-        <v>0.8867464</v>
+        <v>24000.0</v>
       </c>
     </row>
     <row r="1449">
@@ -94425,7 +95066,7 @@
         <v>554</v>
       </c>
       <c r="C1449" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D1449"/>
       <c r="E1449"/>
@@ -94463,10 +95104,10 @@
       <c r="AK1449"/>
       <c r="AL1449"/>
       <c r="AM1449" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1449" t="n">
-        <v>0.03170879</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1450">
@@ -94477,7 +95118,7 @@
         <v>554</v>
       </c>
       <c r="C1450" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D1450"/>
       <c r="E1450"/>
@@ -94515,10 +95156,10 @@
       <c r="AK1450"/>
       <c r="AL1450"/>
       <c r="AM1450" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1450" t="n">
-        <v>1.16667</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="1451">
@@ -94529,7 +95170,7 @@
         <v>554</v>
       </c>
       <c r="C1451" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="D1451"/>
       <c r="E1451"/>
@@ -94567,10 +95208,10 @@
       <c r="AK1451"/>
       <c r="AL1451"/>
       <c r="AM1451" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1451" t="n">
-        <v>0.755045</v>
+        <v>1.573284</v>
       </c>
     </row>
     <row r="1452">
@@ -94581,7 +95222,7 @@
         <v>554</v>
       </c>
       <c r="C1452" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D1452"/>
       <c r="E1452"/>
@@ -94619,10 +95260,10 @@
       <c r="AK1452"/>
       <c r="AL1452"/>
       <c r="AM1452" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AN1452" t="n">
-        <v>2.6</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="1453">
@@ -94633,7 +95274,7 @@
         <v>554</v>
       </c>
       <c r="C1453" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D1453"/>
       <c r="E1453"/>
@@ -94671,10 +95312,10 @@
       <c r="AK1453"/>
       <c r="AL1453"/>
       <c r="AM1453" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1453" t="n">
-        <v>15000.0</v>
+        <v>1.466716</v>
       </c>
     </row>
     <row r="1454">
@@ -94685,7 +95326,7 @@
         <v>554</v>
       </c>
       <c r="C1454" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D1454"/>
       <c r="E1454"/>
@@ -94723,10 +95364,10 @@
       <c r="AK1454"/>
       <c r="AL1454"/>
       <c r="AM1454" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1454" t="n">
-        <v>1.0</v>
+        <v>0.7971408</v>
       </c>
     </row>
     <row r="1455">
@@ -94737,7 +95378,7 @@
         <v>554</v>
       </c>
       <c r="C1455" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D1455"/>
       <c r="E1455"/>
@@ -94775,10 +95416,10 @@
       <c r="AK1455"/>
       <c r="AL1455"/>
       <c r="AM1455" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1455" t="n">
-        <v>3000.0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="1456">
@@ -94789,7 +95430,7 @@
         <v>554</v>
       </c>
       <c r="C1456" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D1456"/>
       <c r="E1456"/>
@@ -94827,10 +95468,10 @@
       <c r="AK1456"/>
       <c r="AL1456"/>
       <c r="AM1456" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1456" t="n">
-        <v>0.2553887</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1457">
@@ -94841,7 +95482,7 @@
         <v>554</v>
       </c>
       <c r="C1457" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D1457"/>
       <c r="E1457"/>
@@ -94879,10 +95520,10 @@
       <c r="AK1457"/>
       <c r="AL1457"/>
       <c r="AM1457" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1457" t="n">
-        <v>0.8723721</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1458">
@@ -94893,7 +95534,7 @@
         <v>554</v>
       </c>
       <c r="C1458" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D1458"/>
       <c r="E1458"/>
@@ -94931,10 +95572,10 @@
       <c r="AK1458"/>
       <c r="AL1458"/>
       <c r="AM1458" t="n">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1458" t="n">
-        <v>7.026254</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1459">
@@ -94945,7 +95586,7 @@
         <v>554</v>
       </c>
       <c r="C1459" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="D1459"/>
       <c r="E1459"/>
@@ -94983,10 +95624,10 @@
       <c r="AK1459"/>
       <c r="AL1459"/>
       <c r="AM1459" t="n">
-        <v>2011.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1459" t="n">
-        <v>1.152553</v>
+        <v>1.571223</v>
       </c>
     </row>
     <row r="1460">
@@ -94997,7 +95638,7 @@
         <v>554</v>
       </c>
       <c r="C1460" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D1460"/>
       <c r="E1460"/>
@@ -95035,10 +95676,10 @@
       <c r="AK1460"/>
       <c r="AL1460"/>
       <c r="AM1460" t="n">
-        <v>2011.0</v>
+        <v>2006.0</v>
       </c>
       <c r="AN1460" t="n">
-        <v>0.7193553</v>
+        <v>33.46</v>
       </c>
     </row>
     <row r="1461">
@@ -95087,10 +95728,10 @@
       <c r="AK1461"/>
       <c r="AL1461"/>
       <c r="AM1461" t="n">
-        <v>2012.0</v>
+        <v>2007.0</v>
       </c>
       <c r="AN1461" t="n">
-        <v>1.22944</v>
+        <v>1.461943</v>
       </c>
     </row>
     <row r="1462">
@@ -95139,10 +95780,10 @@
       <c r="AK1462"/>
       <c r="AL1462"/>
       <c r="AM1462" t="n">
-        <v>2012.0</v>
+        <v>2007.0</v>
       </c>
       <c r="AN1462" t="n">
-        <v>0.7782936</v>
+        <v>0.7306375</v>
       </c>
     </row>
     <row r="1463">
@@ -95153,7 +95794,7 @@
         <v>554</v>
       </c>
       <c r="C1463" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D1463"/>
       <c r="E1463"/>
@@ -95191,10 +95832,10 @@
       <c r="AK1463"/>
       <c r="AL1463"/>
       <c r="AM1463" t="n">
-        <v>2013.0</v>
+        <v>2007.0</v>
       </c>
       <c r="AN1463" t="n">
-        <v>1.177436</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1464">
@@ -95205,7 +95846,7 @@
         <v>554</v>
       </c>
       <c r="C1464" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D1464"/>
       <c r="E1464"/>
@@ -95243,9 +95884,1673 @@
       <c r="AK1464"/>
       <c r="AL1464"/>
       <c r="AM1464" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN1464" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1465"/>
+      <c r="E1465"/>
+      <c r="F1465"/>
+      <c r="G1465"/>
+      <c r="H1465"/>
+      <c r="I1465"/>
+      <c r="J1465"/>
+      <c r="K1465"/>
+      <c r="L1465"/>
+      <c r="M1465"/>
+      <c r="N1465"/>
+      <c r="O1465"/>
+      <c r="P1465"/>
+      <c r="Q1465"/>
+      <c r="R1465"/>
+      <c r="S1465"/>
+      <c r="T1465"/>
+      <c r="U1465"/>
+      <c r="V1465"/>
+      <c r="W1465"/>
+      <c r="X1465"/>
+      <c r="Y1465"/>
+      <c r="Z1465"/>
+      <c r="AA1465"/>
+      <c r="AB1465"/>
+      <c r="AC1465"/>
+      <c r="AD1465"/>
+      <c r="AE1465"/>
+      <c r="AF1465"/>
+      <c r="AG1465"/>
+      <c r="AH1465"/>
+      <c r="AI1465"/>
+      <c r="AJ1465"/>
+      <c r="AK1465"/>
+      <c r="AL1465"/>
+      <c r="AM1465" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN1465" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1466"/>
+      <c r="E1466"/>
+      <c r="F1466"/>
+      <c r="G1466"/>
+      <c r="H1466"/>
+      <c r="I1466"/>
+      <c r="J1466"/>
+      <c r="K1466"/>
+      <c r="L1466"/>
+      <c r="M1466"/>
+      <c r="N1466"/>
+      <c r="O1466"/>
+      <c r="P1466"/>
+      <c r="Q1466"/>
+      <c r="R1466"/>
+      <c r="S1466"/>
+      <c r="T1466"/>
+      <c r="U1466"/>
+      <c r="V1466"/>
+      <c r="W1466"/>
+      <c r="X1466"/>
+      <c r="Y1466"/>
+      <c r="Z1466"/>
+      <c r="AA1466"/>
+      <c r="AB1466"/>
+      <c r="AC1466"/>
+      <c r="AD1466"/>
+      <c r="AE1466"/>
+      <c r="AF1466"/>
+      <c r="AG1466"/>
+      <c r="AH1466"/>
+      <c r="AI1466"/>
+      <c r="AJ1466"/>
+      <c r="AK1466"/>
+      <c r="AL1466"/>
+      <c r="AM1466" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN1466" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1467"/>
+      <c r="E1467"/>
+      <c r="F1467"/>
+      <c r="G1467"/>
+      <c r="H1467"/>
+      <c r="I1467"/>
+      <c r="J1467"/>
+      <c r="K1467"/>
+      <c r="L1467"/>
+      <c r="M1467"/>
+      <c r="N1467"/>
+      <c r="O1467"/>
+      <c r="P1467"/>
+      <c r="Q1467"/>
+      <c r="R1467"/>
+      <c r="S1467"/>
+      <c r="T1467"/>
+      <c r="U1467"/>
+      <c r="V1467"/>
+      <c r="W1467"/>
+      <c r="X1467"/>
+      <c r="Y1467"/>
+      <c r="Z1467"/>
+      <c r="AA1467"/>
+      <c r="AB1467"/>
+      <c r="AC1467"/>
+      <c r="AD1467"/>
+      <c r="AE1467"/>
+      <c r="AF1467"/>
+      <c r="AG1467"/>
+      <c r="AH1467"/>
+      <c r="AI1467"/>
+      <c r="AJ1467"/>
+      <c r="AK1467"/>
+      <c r="AL1467"/>
+      <c r="AM1467" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN1467" t="n">
+        <v>1.576689</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1468"/>
+      <c r="E1468"/>
+      <c r="F1468"/>
+      <c r="G1468"/>
+      <c r="H1468"/>
+      <c r="I1468"/>
+      <c r="J1468"/>
+      <c r="K1468"/>
+      <c r="L1468"/>
+      <c r="M1468"/>
+      <c r="N1468"/>
+      <c r="O1468"/>
+      <c r="P1468"/>
+      <c r="Q1468"/>
+      <c r="R1468"/>
+      <c r="S1468"/>
+      <c r="T1468"/>
+      <c r="U1468"/>
+      <c r="V1468"/>
+      <c r="W1468"/>
+      <c r="X1468"/>
+      <c r="Y1468"/>
+      <c r="Z1468"/>
+      <c r="AA1468"/>
+      <c r="AB1468"/>
+      <c r="AC1468"/>
+      <c r="AD1468"/>
+      <c r="AE1468"/>
+      <c r="AF1468"/>
+      <c r="AG1468"/>
+      <c r="AH1468"/>
+      <c r="AI1468"/>
+      <c r="AJ1468"/>
+      <c r="AK1468"/>
+      <c r="AL1468"/>
+      <c r="AM1468" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN1468" t="n">
+        <v>33.46</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1469"/>
+      <c r="E1469"/>
+      <c r="F1469"/>
+      <c r="G1469"/>
+      <c r="H1469"/>
+      <c r="I1469"/>
+      <c r="J1469"/>
+      <c r="K1469"/>
+      <c r="L1469"/>
+      <c r="M1469"/>
+      <c r="N1469"/>
+      <c r="O1469"/>
+      <c r="P1469"/>
+      <c r="Q1469"/>
+      <c r="R1469"/>
+      <c r="S1469"/>
+      <c r="T1469"/>
+      <c r="U1469"/>
+      <c r="V1469"/>
+      <c r="W1469"/>
+      <c r="X1469"/>
+      <c r="Y1469"/>
+      <c r="Z1469"/>
+      <c r="AA1469"/>
+      <c r="AB1469"/>
+      <c r="AC1469"/>
+      <c r="AD1469"/>
+      <c r="AE1469"/>
+      <c r="AF1469"/>
+      <c r="AG1469"/>
+      <c r="AH1469"/>
+      <c r="AI1469"/>
+      <c r="AJ1469"/>
+      <c r="AK1469"/>
+      <c r="AL1469"/>
+      <c r="AM1469" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN1469" t="n">
+        <v>1.254995</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1470"/>
+      <c r="E1470"/>
+      <c r="F1470"/>
+      <c r="G1470"/>
+      <c r="H1470"/>
+      <c r="I1470"/>
+      <c r="J1470"/>
+      <c r="K1470"/>
+      <c r="L1470"/>
+      <c r="M1470"/>
+      <c r="N1470"/>
+      <c r="O1470"/>
+      <c r="P1470"/>
+      <c r="Q1470"/>
+      <c r="R1470"/>
+      <c r="S1470"/>
+      <c r="T1470"/>
+      <c r="U1470"/>
+      <c r="V1470"/>
+      <c r="W1470"/>
+      <c r="X1470"/>
+      <c r="Y1470"/>
+      <c r="Z1470"/>
+      <c r="AA1470"/>
+      <c r="AB1470"/>
+      <c r="AC1470"/>
+      <c r="AD1470"/>
+      <c r="AE1470"/>
+      <c r="AF1470"/>
+      <c r="AG1470"/>
+      <c r="AH1470"/>
+      <c r="AI1470"/>
+      <c r="AJ1470"/>
+      <c r="AK1470"/>
+      <c r="AL1470"/>
+      <c r="AM1470" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN1470" t="n">
+        <v>0.6826747</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1471"/>
+      <c r="E1471"/>
+      <c r="F1471"/>
+      <c r="G1471"/>
+      <c r="H1471"/>
+      <c r="I1471"/>
+      <c r="J1471"/>
+      <c r="K1471"/>
+      <c r="L1471"/>
+      <c r="M1471"/>
+      <c r="N1471"/>
+      <c r="O1471"/>
+      <c r="P1471"/>
+      <c r="Q1471"/>
+      <c r="R1471"/>
+      <c r="S1471"/>
+      <c r="T1471"/>
+      <c r="U1471"/>
+      <c r="V1471"/>
+      <c r="W1471"/>
+      <c r="X1471"/>
+      <c r="Y1471"/>
+      <c r="Z1471"/>
+      <c r="AA1471"/>
+      <c r="AB1471"/>
+      <c r="AC1471"/>
+      <c r="AD1471"/>
+      <c r="AE1471"/>
+      <c r="AF1471"/>
+      <c r="AG1471"/>
+      <c r="AH1471"/>
+      <c r="AI1471"/>
+      <c r="AJ1471"/>
+      <c r="AK1471"/>
+      <c r="AL1471"/>
+      <c r="AM1471" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN1471" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1472"/>
+      <c r="E1472"/>
+      <c r="F1472"/>
+      <c r="G1472"/>
+      <c r="H1472"/>
+      <c r="I1472"/>
+      <c r="J1472"/>
+      <c r="K1472"/>
+      <c r="L1472"/>
+      <c r="M1472"/>
+      <c r="N1472"/>
+      <c r="O1472"/>
+      <c r="P1472"/>
+      <c r="Q1472"/>
+      <c r="R1472"/>
+      <c r="S1472"/>
+      <c r="T1472"/>
+      <c r="U1472"/>
+      <c r="V1472"/>
+      <c r="W1472"/>
+      <c r="X1472"/>
+      <c r="Y1472"/>
+      <c r="Z1472"/>
+      <c r="AA1472"/>
+      <c r="AB1472"/>
+      <c r="AC1472"/>
+      <c r="AD1472"/>
+      <c r="AE1472"/>
+      <c r="AF1472"/>
+      <c r="AG1472"/>
+      <c r="AH1472"/>
+      <c r="AI1472"/>
+      <c r="AJ1472"/>
+      <c r="AK1472"/>
+      <c r="AL1472"/>
+      <c r="AM1472" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN1472" t="n">
+        <v>1.563662</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1473"/>
+      <c r="E1473"/>
+      <c r="F1473"/>
+      <c r="G1473"/>
+      <c r="H1473"/>
+      <c r="I1473"/>
+      <c r="J1473"/>
+      <c r="K1473"/>
+      <c r="L1473"/>
+      <c r="M1473"/>
+      <c r="N1473"/>
+      <c r="O1473"/>
+      <c r="P1473"/>
+      <c r="Q1473"/>
+      <c r="R1473"/>
+      <c r="S1473"/>
+      <c r="T1473"/>
+      <c r="U1473"/>
+      <c r="V1473"/>
+      <c r="W1473"/>
+      <c r="X1473"/>
+      <c r="Y1473"/>
+      <c r="Z1473"/>
+      <c r="AA1473"/>
+      <c r="AB1473"/>
+      <c r="AC1473"/>
+      <c r="AD1473"/>
+      <c r="AE1473"/>
+      <c r="AF1473"/>
+      <c r="AG1473"/>
+      <c r="AH1473"/>
+      <c r="AI1473"/>
+      <c r="AJ1473"/>
+      <c r="AK1473"/>
+      <c r="AL1473"/>
+      <c r="AM1473" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN1473" t="n">
+        <v>33.23</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1474"/>
+      <c r="E1474"/>
+      <c r="F1474"/>
+      <c r="G1474"/>
+      <c r="H1474"/>
+      <c r="I1474"/>
+      <c r="J1474"/>
+      <c r="K1474"/>
+      <c r="L1474"/>
+      <c r="M1474"/>
+      <c r="N1474"/>
+      <c r="O1474"/>
+      <c r="P1474"/>
+      <c r="Q1474"/>
+      <c r="R1474"/>
+      <c r="S1474"/>
+      <c r="T1474"/>
+      <c r="U1474"/>
+      <c r="V1474"/>
+      <c r="W1474"/>
+      <c r="X1474"/>
+      <c r="Y1474"/>
+      <c r="Z1474"/>
+      <c r="AA1474"/>
+      <c r="AB1474"/>
+      <c r="AC1474"/>
+      <c r="AD1474"/>
+      <c r="AE1474"/>
+      <c r="AF1474"/>
+      <c r="AG1474"/>
+      <c r="AH1474"/>
+      <c r="AI1474"/>
+      <c r="AJ1474"/>
+      <c r="AK1474"/>
+      <c r="AL1474"/>
+      <c r="AM1474" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1474" t="n">
+        <v>1.121392</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1475"/>
+      <c r="E1475"/>
+      <c r="F1475"/>
+      <c r="G1475"/>
+      <c r="H1475"/>
+      <c r="I1475"/>
+      <c r="J1475"/>
+      <c r="K1475"/>
+      <c r="L1475"/>
+      <c r="M1475"/>
+      <c r="N1475"/>
+      <c r="O1475"/>
+      <c r="P1475"/>
+      <c r="Q1475"/>
+      <c r="R1475"/>
+      <c r="S1475"/>
+      <c r="T1475"/>
+      <c r="U1475"/>
+      <c r="V1475"/>
+      <c r="W1475"/>
+      <c r="X1475"/>
+      <c r="Y1475"/>
+      <c r="Z1475"/>
+      <c r="AA1475"/>
+      <c r="AB1475"/>
+      <c r="AC1475"/>
+      <c r="AD1475"/>
+      <c r="AE1475"/>
+      <c r="AF1475"/>
+      <c r="AG1475"/>
+      <c r="AH1475"/>
+      <c r="AI1475"/>
+      <c r="AJ1475"/>
+      <c r="AK1475"/>
+      <c r="AL1475"/>
+      <c r="AM1475" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1475" t="n">
+        <v>0.7198434</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1476"/>
+      <c r="E1476"/>
+      <c r="F1476"/>
+      <c r="G1476"/>
+      <c r="H1476"/>
+      <c r="I1476"/>
+      <c r="J1476"/>
+      <c r="K1476"/>
+      <c r="L1476"/>
+      <c r="M1476"/>
+      <c r="N1476"/>
+      <c r="O1476"/>
+      <c r="P1476"/>
+      <c r="Q1476"/>
+      <c r="R1476"/>
+      <c r="S1476"/>
+      <c r="T1476"/>
+      <c r="U1476"/>
+      <c r="V1476"/>
+      <c r="W1476"/>
+      <c r="X1476"/>
+      <c r="Y1476"/>
+      <c r="Z1476"/>
+      <c r="AA1476"/>
+      <c r="AB1476"/>
+      <c r="AC1476"/>
+      <c r="AD1476"/>
+      <c r="AE1476"/>
+      <c r="AF1476"/>
+      <c r="AG1476"/>
+      <c r="AH1476"/>
+      <c r="AI1476"/>
+      <c r="AJ1476"/>
+      <c r="AK1476"/>
+      <c r="AL1476"/>
+      <c r="AM1476" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1476" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1477"/>
+      <c r="E1477"/>
+      <c r="F1477"/>
+      <c r="G1477"/>
+      <c r="H1477"/>
+      <c r="I1477"/>
+      <c r="J1477"/>
+      <c r="K1477"/>
+      <c r="L1477"/>
+      <c r="M1477"/>
+      <c r="N1477"/>
+      <c r="O1477"/>
+      <c r="P1477"/>
+      <c r="Q1477"/>
+      <c r="R1477"/>
+      <c r="S1477"/>
+      <c r="T1477"/>
+      <c r="U1477"/>
+      <c r="V1477"/>
+      <c r="W1477"/>
+      <c r="X1477"/>
+      <c r="Y1477"/>
+      <c r="Z1477"/>
+      <c r="AA1477"/>
+      <c r="AB1477"/>
+      <c r="AC1477"/>
+      <c r="AD1477"/>
+      <c r="AE1477"/>
+      <c r="AF1477"/>
+      <c r="AG1477"/>
+      <c r="AH1477"/>
+      <c r="AI1477"/>
+      <c r="AJ1477"/>
+      <c r="AK1477"/>
+      <c r="AL1477"/>
+      <c r="AM1477" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1477" t="n">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1478"/>
+      <c r="E1478"/>
+      <c r="F1478"/>
+      <c r="G1478"/>
+      <c r="H1478"/>
+      <c r="I1478"/>
+      <c r="J1478"/>
+      <c r="K1478"/>
+      <c r="L1478"/>
+      <c r="M1478"/>
+      <c r="N1478"/>
+      <c r="O1478"/>
+      <c r="P1478"/>
+      <c r="Q1478"/>
+      <c r="R1478"/>
+      <c r="S1478"/>
+      <c r="T1478"/>
+      <c r="U1478"/>
+      <c r="V1478"/>
+      <c r="W1478"/>
+      <c r="X1478"/>
+      <c r="Y1478"/>
+      <c r="Z1478"/>
+      <c r="AA1478"/>
+      <c r="AB1478"/>
+      <c r="AC1478"/>
+      <c r="AD1478"/>
+      <c r="AE1478"/>
+      <c r="AF1478"/>
+      <c r="AG1478"/>
+      <c r="AH1478"/>
+      <c r="AI1478"/>
+      <c r="AJ1478"/>
+      <c r="AK1478"/>
+      <c r="AL1478"/>
+      <c r="AM1478" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1478" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1479"/>
+      <c r="E1479"/>
+      <c r="F1479"/>
+      <c r="G1479"/>
+      <c r="H1479"/>
+      <c r="I1479"/>
+      <c r="J1479"/>
+      <c r="K1479"/>
+      <c r="L1479"/>
+      <c r="M1479"/>
+      <c r="N1479"/>
+      <c r="O1479"/>
+      <c r="P1479"/>
+      <c r="Q1479"/>
+      <c r="R1479"/>
+      <c r="S1479"/>
+      <c r="T1479"/>
+      <c r="U1479"/>
+      <c r="V1479"/>
+      <c r="W1479"/>
+      <c r="X1479"/>
+      <c r="Y1479"/>
+      <c r="Z1479"/>
+      <c r="AA1479"/>
+      <c r="AB1479"/>
+      <c r="AC1479"/>
+      <c r="AD1479"/>
+      <c r="AE1479"/>
+      <c r="AF1479"/>
+      <c r="AG1479"/>
+      <c r="AH1479"/>
+      <c r="AI1479"/>
+      <c r="AJ1479"/>
+      <c r="AK1479"/>
+      <c r="AL1479"/>
+      <c r="AM1479" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN1479" t="n">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1480"/>
+      <c r="E1480"/>
+      <c r="F1480"/>
+      <c r="G1480"/>
+      <c r="H1480"/>
+      <c r="I1480"/>
+      <c r="J1480"/>
+      <c r="K1480"/>
+      <c r="L1480"/>
+      <c r="M1480"/>
+      <c r="N1480"/>
+      <c r="O1480"/>
+      <c r="P1480"/>
+      <c r="Q1480"/>
+      <c r="R1480"/>
+      <c r="S1480"/>
+      <c r="T1480"/>
+      <c r="U1480"/>
+      <c r="V1480"/>
+      <c r="W1480"/>
+      <c r="X1480"/>
+      <c r="Y1480"/>
+      <c r="Z1480"/>
+      <c r="AA1480"/>
+      <c r="AB1480"/>
+      <c r="AC1480"/>
+      <c r="AD1480"/>
+      <c r="AE1480"/>
+      <c r="AF1480"/>
+      <c r="AG1480"/>
+      <c r="AH1480"/>
+      <c r="AI1480"/>
+      <c r="AJ1480"/>
+      <c r="AK1480"/>
+      <c r="AL1480"/>
+      <c r="AM1480" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1480" t="n">
+        <v>0.8867464</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1481"/>
+      <c r="E1481"/>
+      <c r="F1481"/>
+      <c r="G1481"/>
+      <c r="H1481"/>
+      <c r="I1481"/>
+      <c r="J1481"/>
+      <c r="K1481"/>
+      <c r="L1481"/>
+      <c r="M1481"/>
+      <c r="N1481"/>
+      <c r="O1481"/>
+      <c r="P1481"/>
+      <c r="Q1481"/>
+      <c r="R1481"/>
+      <c r="S1481"/>
+      <c r="T1481"/>
+      <c r="U1481"/>
+      <c r="V1481"/>
+      <c r="W1481"/>
+      <c r="X1481"/>
+      <c r="Y1481"/>
+      <c r="Z1481"/>
+      <c r="AA1481"/>
+      <c r="AB1481"/>
+      <c r="AC1481"/>
+      <c r="AD1481"/>
+      <c r="AE1481"/>
+      <c r="AF1481"/>
+      <c r="AG1481"/>
+      <c r="AH1481"/>
+      <c r="AI1481"/>
+      <c r="AJ1481"/>
+      <c r="AK1481"/>
+      <c r="AL1481"/>
+      <c r="AM1481" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1481" t="n">
+        <v>0.03170879</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1482"/>
+      <c r="E1482"/>
+      <c r="F1482"/>
+      <c r="G1482"/>
+      <c r="H1482"/>
+      <c r="I1482"/>
+      <c r="J1482"/>
+      <c r="K1482"/>
+      <c r="L1482"/>
+      <c r="M1482"/>
+      <c r="N1482"/>
+      <c r="O1482"/>
+      <c r="P1482"/>
+      <c r="Q1482"/>
+      <c r="R1482"/>
+      <c r="S1482"/>
+      <c r="T1482"/>
+      <c r="U1482"/>
+      <c r="V1482"/>
+      <c r="W1482"/>
+      <c r="X1482"/>
+      <c r="Y1482"/>
+      <c r="Z1482"/>
+      <c r="AA1482"/>
+      <c r="AB1482"/>
+      <c r="AC1482"/>
+      <c r="AD1482"/>
+      <c r="AE1482"/>
+      <c r="AF1482"/>
+      <c r="AG1482"/>
+      <c r="AH1482"/>
+      <c r="AI1482"/>
+      <c r="AJ1482"/>
+      <c r="AK1482"/>
+      <c r="AL1482"/>
+      <c r="AM1482" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1482" t="n">
+        <v>1.16667</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1483"/>
+      <c r="E1483"/>
+      <c r="F1483"/>
+      <c r="G1483"/>
+      <c r="H1483"/>
+      <c r="I1483"/>
+      <c r="J1483"/>
+      <c r="K1483"/>
+      <c r="L1483"/>
+      <c r="M1483"/>
+      <c r="N1483"/>
+      <c r="O1483"/>
+      <c r="P1483"/>
+      <c r="Q1483"/>
+      <c r="R1483"/>
+      <c r="S1483"/>
+      <c r="T1483"/>
+      <c r="U1483"/>
+      <c r="V1483"/>
+      <c r="W1483"/>
+      <c r="X1483"/>
+      <c r="Y1483"/>
+      <c r="Z1483"/>
+      <c r="AA1483"/>
+      <c r="AB1483"/>
+      <c r="AC1483"/>
+      <c r="AD1483"/>
+      <c r="AE1483"/>
+      <c r="AF1483"/>
+      <c r="AG1483"/>
+      <c r="AH1483"/>
+      <c r="AI1483"/>
+      <c r="AJ1483"/>
+      <c r="AK1483"/>
+      <c r="AL1483"/>
+      <c r="AM1483" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1483" t="n">
+        <v>0.755045</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1484"/>
+      <c r="E1484"/>
+      <c r="F1484"/>
+      <c r="G1484"/>
+      <c r="H1484"/>
+      <c r="I1484"/>
+      <c r="J1484"/>
+      <c r="K1484"/>
+      <c r="L1484"/>
+      <c r="M1484"/>
+      <c r="N1484"/>
+      <c r="O1484"/>
+      <c r="P1484"/>
+      <c r="Q1484"/>
+      <c r="R1484"/>
+      <c r="S1484"/>
+      <c r="T1484"/>
+      <c r="U1484"/>
+      <c r="V1484"/>
+      <c r="W1484"/>
+      <c r="X1484"/>
+      <c r="Y1484"/>
+      <c r="Z1484"/>
+      <c r="AA1484"/>
+      <c r="AB1484"/>
+      <c r="AC1484"/>
+      <c r="AD1484"/>
+      <c r="AE1484"/>
+      <c r="AF1484"/>
+      <c r="AG1484"/>
+      <c r="AH1484"/>
+      <c r="AI1484"/>
+      <c r="AJ1484"/>
+      <c r="AK1484"/>
+      <c r="AL1484"/>
+      <c r="AM1484" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1484" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1485"/>
+      <c r="E1485"/>
+      <c r="F1485"/>
+      <c r="G1485"/>
+      <c r="H1485"/>
+      <c r="I1485"/>
+      <c r="J1485"/>
+      <c r="K1485"/>
+      <c r="L1485"/>
+      <c r="M1485"/>
+      <c r="N1485"/>
+      <c r="O1485"/>
+      <c r="P1485"/>
+      <c r="Q1485"/>
+      <c r="R1485"/>
+      <c r="S1485"/>
+      <c r="T1485"/>
+      <c r="U1485"/>
+      <c r="V1485"/>
+      <c r="W1485"/>
+      <c r="X1485"/>
+      <c r="Y1485"/>
+      <c r="Z1485"/>
+      <c r="AA1485"/>
+      <c r="AB1485"/>
+      <c r="AC1485"/>
+      <c r="AD1485"/>
+      <c r="AE1485"/>
+      <c r="AF1485"/>
+      <c r="AG1485"/>
+      <c r="AH1485"/>
+      <c r="AI1485"/>
+      <c r="AJ1485"/>
+      <c r="AK1485"/>
+      <c r="AL1485"/>
+      <c r="AM1485" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1485" t="n">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1486"/>
+      <c r="E1486"/>
+      <c r="F1486"/>
+      <c r="G1486"/>
+      <c r="H1486"/>
+      <c r="I1486"/>
+      <c r="J1486"/>
+      <c r="K1486"/>
+      <c r="L1486"/>
+      <c r="M1486"/>
+      <c r="N1486"/>
+      <c r="O1486"/>
+      <c r="P1486"/>
+      <c r="Q1486"/>
+      <c r="R1486"/>
+      <c r="S1486"/>
+      <c r="T1486"/>
+      <c r="U1486"/>
+      <c r="V1486"/>
+      <c r="W1486"/>
+      <c r="X1486"/>
+      <c r="Y1486"/>
+      <c r="Z1486"/>
+      <c r="AA1486"/>
+      <c r="AB1486"/>
+      <c r="AC1486"/>
+      <c r="AD1486"/>
+      <c r="AE1486"/>
+      <c r="AF1486"/>
+      <c r="AG1486"/>
+      <c r="AH1486"/>
+      <c r="AI1486"/>
+      <c r="AJ1486"/>
+      <c r="AK1486"/>
+      <c r="AL1486"/>
+      <c r="AM1486" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1486" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1487"/>
+      <c r="E1487"/>
+      <c r="F1487"/>
+      <c r="G1487"/>
+      <c r="H1487"/>
+      <c r="I1487"/>
+      <c r="J1487"/>
+      <c r="K1487"/>
+      <c r="L1487"/>
+      <c r="M1487"/>
+      <c r="N1487"/>
+      <c r="O1487"/>
+      <c r="P1487"/>
+      <c r="Q1487"/>
+      <c r="R1487"/>
+      <c r="S1487"/>
+      <c r="T1487"/>
+      <c r="U1487"/>
+      <c r="V1487"/>
+      <c r="W1487"/>
+      <c r="X1487"/>
+      <c r="Y1487"/>
+      <c r="Z1487"/>
+      <c r="AA1487"/>
+      <c r="AB1487"/>
+      <c r="AC1487"/>
+      <c r="AD1487"/>
+      <c r="AE1487"/>
+      <c r="AF1487"/>
+      <c r="AG1487"/>
+      <c r="AH1487"/>
+      <c r="AI1487"/>
+      <c r="AJ1487"/>
+      <c r="AK1487"/>
+      <c r="AL1487"/>
+      <c r="AM1487" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1487" t="n">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1488"/>
+      <c r="E1488"/>
+      <c r="F1488"/>
+      <c r="G1488"/>
+      <c r="H1488"/>
+      <c r="I1488"/>
+      <c r="J1488"/>
+      <c r="K1488"/>
+      <c r="L1488"/>
+      <c r="M1488"/>
+      <c r="N1488"/>
+      <c r="O1488"/>
+      <c r="P1488"/>
+      <c r="Q1488"/>
+      <c r="R1488"/>
+      <c r="S1488"/>
+      <c r="T1488"/>
+      <c r="U1488"/>
+      <c r="V1488"/>
+      <c r="W1488"/>
+      <c r="X1488"/>
+      <c r="Y1488"/>
+      <c r="Z1488"/>
+      <c r="AA1488"/>
+      <c r="AB1488"/>
+      <c r="AC1488"/>
+      <c r="AD1488"/>
+      <c r="AE1488"/>
+      <c r="AF1488"/>
+      <c r="AG1488"/>
+      <c r="AH1488"/>
+      <c r="AI1488"/>
+      <c r="AJ1488"/>
+      <c r="AK1488"/>
+      <c r="AL1488"/>
+      <c r="AM1488" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1488" t="n">
+        <v>0.2553887</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1489"/>
+      <c r="E1489"/>
+      <c r="F1489"/>
+      <c r="G1489"/>
+      <c r="H1489"/>
+      <c r="I1489"/>
+      <c r="J1489"/>
+      <c r="K1489"/>
+      <c r="L1489"/>
+      <c r="M1489"/>
+      <c r="N1489"/>
+      <c r="O1489"/>
+      <c r="P1489"/>
+      <c r="Q1489"/>
+      <c r="R1489"/>
+      <c r="S1489"/>
+      <c r="T1489"/>
+      <c r="U1489"/>
+      <c r="V1489"/>
+      <c r="W1489"/>
+      <c r="X1489"/>
+      <c r="Y1489"/>
+      <c r="Z1489"/>
+      <c r="AA1489"/>
+      <c r="AB1489"/>
+      <c r="AC1489"/>
+      <c r="AD1489"/>
+      <c r="AE1489"/>
+      <c r="AF1489"/>
+      <c r="AG1489"/>
+      <c r="AH1489"/>
+      <c r="AI1489"/>
+      <c r="AJ1489"/>
+      <c r="AK1489"/>
+      <c r="AL1489"/>
+      <c r="AM1489" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1489" t="n">
+        <v>0.8723721</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1490"/>
+      <c r="E1490"/>
+      <c r="F1490"/>
+      <c r="G1490"/>
+      <c r="H1490"/>
+      <c r="I1490"/>
+      <c r="J1490"/>
+      <c r="K1490"/>
+      <c r="L1490"/>
+      <c r="M1490"/>
+      <c r="N1490"/>
+      <c r="O1490"/>
+      <c r="P1490"/>
+      <c r="Q1490"/>
+      <c r="R1490"/>
+      <c r="S1490"/>
+      <c r="T1490"/>
+      <c r="U1490"/>
+      <c r="V1490"/>
+      <c r="W1490"/>
+      <c r="X1490"/>
+      <c r="Y1490"/>
+      <c r="Z1490"/>
+      <c r="AA1490"/>
+      <c r="AB1490"/>
+      <c r="AC1490"/>
+      <c r="AD1490"/>
+      <c r="AE1490"/>
+      <c r="AF1490"/>
+      <c r="AG1490"/>
+      <c r="AH1490"/>
+      <c r="AI1490"/>
+      <c r="AJ1490"/>
+      <c r="AK1490"/>
+      <c r="AL1490"/>
+      <c r="AM1490" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN1490" t="n">
+        <v>7.026254</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1491"/>
+      <c r="E1491"/>
+      <c r="F1491"/>
+      <c r="G1491"/>
+      <c r="H1491"/>
+      <c r="I1491"/>
+      <c r="J1491"/>
+      <c r="K1491"/>
+      <c r="L1491"/>
+      <c r="M1491"/>
+      <c r="N1491"/>
+      <c r="O1491"/>
+      <c r="P1491"/>
+      <c r="Q1491"/>
+      <c r="R1491"/>
+      <c r="S1491"/>
+      <c r="T1491"/>
+      <c r="U1491"/>
+      <c r="V1491"/>
+      <c r="W1491"/>
+      <c r="X1491"/>
+      <c r="Y1491"/>
+      <c r="Z1491"/>
+      <c r="AA1491"/>
+      <c r="AB1491"/>
+      <c r="AC1491"/>
+      <c r="AD1491"/>
+      <c r="AE1491"/>
+      <c r="AF1491"/>
+      <c r="AG1491"/>
+      <c r="AH1491"/>
+      <c r="AI1491"/>
+      <c r="AJ1491"/>
+      <c r="AK1491"/>
+      <c r="AL1491"/>
+      <c r="AM1491" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="AN1491" t="n">
+        <v>1.152553</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1492"/>
+      <c r="E1492"/>
+      <c r="F1492"/>
+      <c r="G1492"/>
+      <c r="H1492"/>
+      <c r="I1492"/>
+      <c r="J1492"/>
+      <c r="K1492"/>
+      <c r="L1492"/>
+      <c r="M1492"/>
+      <c r="N1492"/>
+      <c r="O1492"/>
+      <c r="P1492"/>
+      <c r="Q1492"/>
+      <c r="R1492"/>
+      <c r="S1492"/>
+      <c r="T1492"/>
+      <c r="U1492"/>
+      <c r="V1492"/>
+      <c r="W1492"/>
+      <c r="X1492"/>
+      <c r="Y1492"/>
+      <c r="Z1492"/>
+      <c r="AA1492"/>
+      <c r="AB1492"/>
+      <c r="AC1492"/>
+      <c r="AD1492"/>
+      <c r="AE1492"/>
+      <c r="AF1492"/>
+      <c r="AG1492"/>
+      <c r="AH1492"/>
+      <c r="AI1492"/>
+      <c r="AJ1492"/>
+      <c r="AK1492"/>
+      <c r="AL1492"/>
+      <c r="AM1492" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="AN1492" t="n">
+        <v>0.7193553</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1493"/>
+      <c r="E1493"/>
+      <c r="F1493"/>
+      <c r="G1493"/>
+      <c r="H1493"/>
+      <c r="I1493"/>
+      <c r="J1493"/>
+      <c r="K1493"/>
+      <c r="L1493"/>
+      <c r="M1493"/>
+      <c r="N1493"/>
+      <c r="O1493"/>
+      <c r="P1493"/>
+      <c r="Q1493"/>
+      <c r="R1493"/>
+      <c r="S1493"/>
+      <c r="T1493"/>
+      <c r="U1493"/>
+      <c r="V1493"/>
+      <c r="W1493"/>
+      <c r="X1493"/>
+      <c r="Y1493"/>
+      <c r="Z1493"/>
+      <c r="AA1493"/>
+      <c r="AB1493"/>
+      <c r="AC1493"/>
+      <c r="AD1493"/>
+      <c r="AE1493"/>
+      <c r="AF1493"/>
+      <c r="AG1493"/>
+      <c r="AH1493"/>
+      <c r="AI1493"/>
+      <c r="AJ1493"/>
+      <c r="AK1493"/>
+      <c r="AL1493"/>
+      <c r="AM1493" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="AN1493" t="n">
+        <v>1.22944</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1494"/>
+      <c r="E1494"/>
+      <c r="F1494"/>
+      <c r="G1494"/>
+      <c r="H1494"/>
+      <c r="I1494"/>
+      <c r="J1494"/>
+      <c r="K1494"/>
+      <c r="L1494"/>
+      <c r="M1494"/>
+      <c r="N1494"/>
+      <c r="O1494"/>
+      <c r="P1494"/>
+      <c r="Q1494"/>
+      <c r="R1494"/>
+      <c r="S1494"/>
+      <c r="T1494"/>
+      <c r="U1494"/>
+      <c r="V1494"/>
+      <c r="W1494"/>
+      <c r="X1494"/>
+      <c r="Y1494"/>
+      <c r="Z1494"/>
+      <c r="AA1494"/>
+      <c r="AB1494"/>
+      <c r="AC1494"/>
+      <c r="AD1494"/>
+      <c r="AE1494"/>
+      <c r="AF1494"/>
+      <c r="AG1494"/>
+      <c r="AH1494"/>
+      <c r="AI1494"/>
+      <c r="AJ1494"/>
+      <c r="AK1494"/>
+      <c r="AL1494"/>
+      <c r="AM1494" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="AN1494" t="n">
+        <v>0.7782936</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1495"/>
+      <c r="E1495"/>
+      <c r="F1495"/>
+      <c r="G1495"/>
+      <c r="H1495"/>
+      <c r="I1495"/>
+      <c r="J1495"/>
+      <c r="K1495"/>
+      <c r="L1495"/>
+      <c r="M1495"/>
+      <c r="N1495"/>
+      <c r="O1495"/>
+      <c r="P1495"/>
+      <c r="Q1495"/>
+      <c r="R1495"/>
+      <c r="S1495"/>
+      <c r="T1495"/>
+      <c r="U1495"/>
+      <c r="V1495"/>
+      <c r="W1495"/>
+      <c r="X1495"/>
+      <c r="Y1495"/>
+      <c r="Z1495"/>
+      <c r="AA1495"/>
+      <c r="AB1495"/>
+      <c r="AC1495"/>
+      <c r="AD1495"/>
+      <c r="AE1495"/>
+      <c r="AF1495"/>
+      <c r="AG1495"/>
+      <c r="AH1495"/>
+      <c r="AI1495"/>
+      <c r="AJ1495"/>
+      <c r="AK1495"/>
+      <c r="AL1495"/>
+      <c r="AM1495" t="n">
         <v>2013.0</v>
       </c>
-      <c r="AN1464" t="n">
+      <c r="AN1495" t="n">
+        <v>1.177436</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>674.0</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1496"/>
+      <c r="E1496"/>
+      <c r="F1496"/>
+      <c r="G1496"/>
+      <c r="H1496"/>
+      <c r="I1496"/>
+      <c r="J1496"/>
+      <c r="K1496"/>
+      <c r="L1496"/>
+      <c r="M1496"/>
+      <c r="N1496"/>
+      <c r="O1496"/>
+      <c r="P1496"/>
+      <c r="Q1496"/>
+      <c r="R1496"/>
+      <c r="S1496"/>
+      <c r="T1496"/>
+      <c r="U1496"/>
+      <c r="V1496"/>
+      <c r="W1496"/>
+      <c r="X1496"/>
+      <c r="Y1496"/>
+      <c r="Z1496"/>
+      <c r="AA1496"/>
+      <c r="AB1496"/>
+      <c r="AC1496"/>
+      <c r="AD1496"/>
+      <c r="AE1496"/>
+      <c r="AF1496"/>
+      <c r="AG1496"/>
+      <c r="AH1496"/>
+      <c r="AI1496"/>
+      <c r="AJ1496"/>
+      <c r="AK1496"/>
+      <c r="AL1496"/>
+      <c r="AM1496" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="AN1496" t="n">
         <v>0.7531592</v>
       </c>
     </row>
@@ -95264,18 +97569,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -95293,186 +97598,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -95490,10 +97803,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
@@ -95501,7 +97814,7 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -95509,7 +97822,7 @@
         <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
@@ -95517,7 +97830,7 @@
         <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5">
@@ -95525,7 +97838,7 @@
         <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6">
@@ -95533,7 +97846,7 @@
         <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7">
@@ -95541,7 +97854,7 @@
         <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8">
@@ -95549,7 +97862,7 @@
         <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9">
@@ -95557,7 +97870,7 @@
         <v>562</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10">
@@ -95565,7 +97878,7 @@
         <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11">
@@ -95573,7 +97886,7 @@
         <v>564</v>
       </c>
       <c r="B11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12">
@@ -95581,7 +97894,7 @@
         <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13">
@@ -95589,7 +97902,7 @@
         <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14">
@@ -95597,7 +97910,7 @@
         <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15">
@@ -95605,7 +97918,7 @@
         <v>568</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16">
@@ -95613,7 +97926,7 @@
         <v>569</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17">
@@ -95621,7 +97934,7 @@
         <v>570</v>
       </c>
       <c r="B17" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18">
@@ -95629,7 +97942,7 @@
         <v>571</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19">
@@ -95637,7 +97950,7 @@
         <v>572</v>
       </c>
       <c r="B19" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20">
@@ -95645,7 +97958,7 @@
         <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21">
@@ -95653,7 +97966,7 @@
         <v>574</v>
       </c>
       <c r="B21" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22">
@@ -95661,7 +97974,7 @@
         <v>575</v>
       </c>
       <c r="B22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
@@ -95669,7 +97982,15 @@
         <v>576</v>
       </c>
       <c r="B23" t="s">
-        <v>627</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -95687,10 +98008,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
@@ -95698,7 +98019,7 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
@@ -95706,7 +98027,7 @@
         <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4">
@@ -95714,7 +98035,7 @@
         <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5">
@@ -95722,7 +98043,7 @@
         <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6">
@@ -95730,7 +98051,7 @@
         <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7">
@@ -95738,7 +98059,7 @@
         <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8">
@@ -95746,7 +98067,7 @@
         <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9">
@@ -95754,7 +98075,7 @@
         <v>562</v>
       </c>
       <c r="B9" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10">
@@ -95762,7 +98083,7 @@
         <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11">
@@ -95770,7 +98091,7 @@
         <v>564</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12">
@@ -95778,7 +98099,7 @@
         <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13">
@@ -95786,7 +98107,7 @@
         <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14">
@@ -95794,7 +98115,7 @@
         <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15">
@@ -95802,7 +98123,7 @@
         <v>568</v>
       </c>
       <c r="B15" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16">
@@ -95810,7 +98131,7 @@
         <v>569</v>
       </c>
       <c r="B16" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17">
@@ -95818,7 +98139,7 @@
         <v>570</v>
       </c>
       <c r="B17" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18">
@@ -95826,7 +98147,7 @@
         <v>571</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19">
@@ -95834,7 +98155,7 @@
         <v>572</v>
       </c>
       <c r="B19" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20">
@@ -95842,7 +98163,7 @@
         <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21">
@@ -95850,7 +98171,7 @@
         <v>574</v>
       </c>
       <c r="B21" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22">
@@ -95858,7 +98179,7 @@
         <v>575</v>
       </c>
       <c r="B22" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23">
@@ -95866,7 +98187,15 @@
         <v>576</v>
       </c>
       <c r="B23" t="s">
-        <v>649</v>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -95884,10 +98213,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
@@ -95895,7 +98224,7 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3">
@@ -95903,7 +98232,7 @@
         <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4">
@@ -95911,7 +98240,7 @@
         <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5">
@@ -95919,7 +98248,7 @@
         <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6">
@@ -95927,7 +98256,7 @@
         <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7">
@@ -95935,7 +98264,7 @@
         <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8">
@@ -95943,7 +98272,7 @@
         <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
@@ -95951,7 +98280,7 @@
         <v>562</v>
       </c>
       <c r="B9" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10">
@@ -95959,7 +98288,7 @@
         <v>563</v>
       </c>
       <c r="B10" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11">
@@ -95967,7 +98296,7 @@
         <v>564</v>
       </c>
       <c r="B11" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12">
@@ -95975,7 +98304,7 @@
         <v>565</v>
       </c>
       <c r="B12" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13">
@@ -95983,7 +98312,7 @@
         <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14">
@@ -95991,7 +98320,7 @@
         <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15">
@@ -95999,7 +98328,7 @@
         <v>568</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16">
@@ -96007,7 +98336,7 @@
         <v>569</v>
       </c>
       <c r="B16" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17">
@@ -96015,7 +98344,7 @@
         <v>570</v>
       </c>
       <c r="B17" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18">
@@ -96023,7 +98352,7 @@
         <v>571</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19">
@@ -96031,7 +98360,7 @@
         <v>572</v>
       </c>
       <c r="B19" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20">
@@ -96039,7 +98368,7 @@
         <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21">
@@ -96047,7 +98376,7 @@
         <v>574</v>
       </c>
       <c r="B21" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22">
@@ -96055,7 +98384,7 @@
         <v>575</v>
       </c>
       <c r="B22" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23">
@@ -96063,7 +98392,15 @@
         <v>576</v>
       </c>
       <c r="B23" t="s">
-        <v>671</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
